--- a/data/2017-07-30-pacific-oyster-larvae/2017-08-02-Larvae-Counts.xlsx
+++ b/data/2017-07-30-pacific-oyster-larvae/2017-08-02-Larvae-Counts.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Desktop/spawning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Documents/project-oyster-oa/data/2017-07-30-pacific-oyster-larvae/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Plate Number</t>
   </si>
   <si>
-    <t>Sample Date</t>
-  </si>
-  <si>
     <t>Bucket</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>Well 3 Dead</t>
   </si>
   <si>
-    <t>Sample Volume</t>
-  </si>
-  <si>
     <t>Average Alive</t>
   </si>
   <si>
@@ -83,7 +77,67 @@
     <t>Percent Mortality</t>
   </si>
   <si>
-    <t>Imaged?</t>
+    <t>Well 1 Deformed</t>
+  </si>
+  <si>
+    <t>Well 2 Deformed</t>
+  </si>
+  <si>
+    <t>Average Deformed</t>
+  </si>
+  <si>
+    <t>Number Deformed in Bucket</t>
+  </si>
+  <si>
+    <t>A1-A3</t>
+  </si>
+  <si>
+    <t>A4-A6</t>
+  </si>
+  <si>
+    <t>B1-B3</t>
+  </si>
+  <si>
+    <t>B4-B6</t>
+  </si>
+  <si>
+    <t>C1-C3</t>
+  </si>
+  <si>
+    <t>C4-C6</t>
+  </si>
+  <si>
+    <t>D1-D3</t>
+  </si>
+  <si>
+    <t>D4-D6</t>
+  </si>
+  <si>
+    <t>Date Sampled</t>
+  </si>
+  <si>
+    <t>Date Counted</t>
+  </si>
+  <si>
+    <t>Screen Size (microns)</t>
+  </si>
+  <si>
+    <t>Sample Volume (µL)</t>
+  </si>
+  <si>
+    <t>Well 3 Deformed</t>
+  </si>
+  <si>
+    <t>Could have been dosed with Lugols too long? Dosed on 8/1/17. Difficult to tell if larvae are alive or dead if they are not moving.</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Tripour Volume (µL)</t>
+  </si>
+  <si>
+    <t>Percent Deformed</t>
   </si>
 </sst>
 </file>
@@ -127,9 +181,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,100 +464,1860 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42948</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42949</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>500000</v>
+      </c>
+      <c r="H2">
+        <v>250</v>
+      </c>
+      <c r="I2">
+        <v>35</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>31</v>
+      </c>
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L2" t="e">
-        <f>AVERAGE(F2, H2, J2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" t="e">
-        <f>AVERAGE(G2, I2, K2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N2" t="e">
-        <f>(L2/E2)*15000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O2" t="e">
-        <f>(M2/E2)*15000000</f>
-        <v>#DIV/0!</v>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>26</v>
       </c>
       <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f>AVERAGE(I2, L2, O2)</f>
+        <v>30.666666666666668</v>
+      </c>
+      <c r="S2">
+        <f>AVERAGE(K2, M2, P2)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="T2">
+        <f>AVERAGE(K2,N2,Q2)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U2">
+        <f>(R2/H2)*G2</f>
+        <v>61333.333333333336</v>
+      </c>
+      <c r="V2">
+        <f>(S2/H2)*G2</f>
+        <v>6666.666666666667</v>
+      </c>
+      <c r="W2">
+        <f>(T2/H2)*G2</f>
+        <v>666.66666666666663</v>
+      </c>
+      <c r="X2">
         <f>15000*4</f>
         <v>60000</v>
       </c>
-      <c r="Q2" t="e">
-        <f>N2/P2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R2" t="e">
-        <f>O2/P2</f>
+      <c r="Y2">
+        <f>U2/X2</f>
+        <v>1.0222222222222224</v>
+      </c>
+      <c r="Z2">
+        <f>V2/X2</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="AA2">
+        <f>W2/X2</f>
+        <v>1.111111111111111E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42948</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42949</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>48</v>
+      </c>
+      <c r="G3">
+        <v>500000</v>
+      </c>
+      <c r="H3">
+        <v>300</v>
+      </c>
+      <c r="I3">
+        <v>24</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>19</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R25" si="0">AVERAGE(I3, L3, O3)</f>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S25" si="1">AVERAGE(K3, M3, P3)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T25" si="2">AVERAGE(K3,N3,Q3)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U25" si="3">(R3/H3)*G3</f>
+        <v>31111.111111111113</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V25" si="4">(S3/H3)*G3</f>
+        <v>7777.7777777777783</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W25" si="5">(T3/H3)*G3</f>
+        <v>6111.1111111111104</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X25" si="6">15000*4</f>
+        <v>60000</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y25" si="7">U3/X3</f>
+        <v>0.5185185185185186</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z25" si="8">V3/X3</f>
+        <v>0.12962962962962965</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA25" si="9">W3/X3</f>
+        <v>0.10185185185185185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42948</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42949</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>48</v>
+      </c>
+      <c r="G4">
+        <v>500000</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
+      </c>
+      <c r="I4">
+        <v>38</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>28</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>13</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="3"/>
+        <v>53333.333333333336</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="4"/>
+        <v>1111.1111111111111</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="5"/>
+        <v>14444.444444444443</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="7"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="8"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="9"/>
+        <v>0.24074074074074073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42948</v>
+      </c>
+      <c r="D5" s="1">
+        <v>42949</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>48</v>
+      </c>
+      <c r="G5">
+        <v>500000</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>16</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>22</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="3"/>
+        <v>35555.555555555555</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="4"/>
+        <v>7777.7777777777783</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="5"/>
+        <v>23333.333333333336</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="7"/>
+        <v>0.59259259259259256</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="8"/>
+        <v>0.12962962962962965</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="9"/>
+        <v>0.38888888888888895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42948</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42949</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+      <c r="G6">
+        <v>500000</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>26</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>30</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="3"/>
+        <v>42222.222222222226</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="4"/>
+        <v>7777.7777777777783</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="5"/>
+        <v>9444.4444444444453</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="7"/>
+        <v>0.70370370370370372</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="8"/>
+        <v>0.12962962962962965</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="9"/>
+        <v>0.15740740740740741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42948</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42949</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>48</v>
+      </c>
+      <c r="G7">
+        <v>500000</v>
+      </c>
+      <c r="H7">
+        <v>300</v>
+      </c>
+      <c r="I7">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>31</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>15</v>
+      </c>
+      <c r="O7">
+        <v>21</v>
+      </c>
+      <c r="P7">
+        <v>13</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="3"/>
+        <v>44444.444444444445</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="4"/>
+        <v>13333.333333333334</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="5"/>
+        <v>15000</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="7"/>
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="8"/>
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42948</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42949</v>
+      </c>
+      <c r="E8">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>500000</v>
+      </c>
+      <c r="H8">
+        <v>300</v>
+      </c>
+      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>11</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="P8">
+        <v>24</v>
+      </c>
+      <c r="Q8">
+        <v>13</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="3"/>
+        <v>33333.333333333336</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="4"/>
+        <v>22777.777777777774</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="7"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="8"/>
+        <v>0.37962962962962954</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42948</v>
+      </c>
+      <c r="D9" s="1">
+        <v>42949</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>48</v>
+      </c>
+      <c r="G9">
+        <v>500000</v>
+      </c>
+      <c r="H9">
+        <v>300</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>37</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>22</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>19.666666666666668</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="4"/>
+        <v>32777.777777777781</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="8"/>
+        <v>0.54629629629629639</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42948</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>500000</v>
+      </c>
+      <c r="H10">
+        <v>300</v>
+      </c>
+      <c r="R10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42948</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>500000</v>
+      </c>
+      <c r="H11">
+        <v>300</v>
+      </c>
+      <c r="R11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y11" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z11" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1">
+        <v>42948</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <v>500000</v>
+      </c>
+      <c r="H12">
+        <v>300</v>
+      </c>
+      <c r="R12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y12" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z12" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA12" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42948</v>
+      </c>
+      <c r="E13">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>48</v>
+      </c>
+      <c r="G13">
+        <v>500000</v>
+      </c>
+      <c r="H13">
+        <v>300</v>
+      </c>
+      <c r="R13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y13" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z13" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA13" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1">
+        <v>42948</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>48</v>
+      </c>
+      <c r="G14">
+        <v>500000</v>
+      </c>
+      <c r="H14">
+        <v>300</v>
+      </c>
+      <c r="R14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA14" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1">
+        <v>42948</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>48</v>
+      </c>
+      <c r="G15">
+        <v>500000</v>
+      </c>
+      <c r="H15">
+        <v>300</v>
+      </c>
+      <c r="R15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W15" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y15" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z15" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA15" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42948</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>48</v>
+      </c>
+      <c r="G16">
+        <v>500000</v>
+      </c>
+      <c r="H16">
+        <v>300</v>
+      </c>
+      <c r="R16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W16" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z16" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA16" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1">
+        <v>42948</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>48</v>
+      </c>
+      <c r="G17">
+        <v>500000</v>
+      </c>
+      <c r="H17">
+        <v>300</v>
+      </c>
+      <c r="R17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V17" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W17" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y17" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA17" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42948</v>
+      </c>
+      <c r="E18">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>48</v>
+      </c>
+      <c r="G18">
+        <v>500000</v>
+      </c>
+      <c r="H18">
+        <v>300</v>
+      </c>
+      <c r="R18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U18" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W18" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y18" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z18" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
+        <v>42948</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>48</v>
+      </c>
+      <c r="G19">
+        <v>500000</v>
+      </c>
+      <c r="H19">
+        <v>300</v>
+      </c>
+      <c r="R19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U19" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V19" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W19" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z19" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <v>42948</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>48</v>
+      </c>
+      <c r="G20">
+        <v>500000</v>
+      </c>
+      <c r="H20">
+        <v>300</v>
+      </c>
+      <c r="R20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V20" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y20" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z20" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1">
+        <v>42948</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+      <c r="F21">
+        <v>48</v>
+      </c>
+      <c r="G21">
+        <v>500000</v>
+      </c>
+      <c r="H21">
+        <v>300</v>
+      </c>
+      <c r="R21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U21" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V21" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y21" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z21" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1">
+        <v>42948</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>48</v>
+      </c>
+      <c r="G22">
+        <v>500000</v>
+      </c>
+      <c r="H22">
+        <v>300</v>
+      </c>
+      <c r="R22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W22" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y22" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA22" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>42948</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>48</v>
+      </c>
+      <c r="G23">
+        <v>500000</v>
+      </c>
+      <c r="H23">
+        <v>300</v>
+      </c>
+      <c r="R23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U23" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V23" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W23" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z23" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA23" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1">
+        <v>42948</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>48</v>
+      </c>
+      <c r="G24">
+        <v>500000</v>
+      </c>
+      <c r="H24">
+        <v>300</v>
+      </c>
+      <c r="R24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y24" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z24" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA24" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1">
+        <v>42948</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>48</v>
+      </c>
+      <c r="G25">
+        <v>500000</v>
+      </c>
+      <c r="H25">
+        <v>300</v>
+      </c>
+      <c r="R25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="Y25" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z25" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA25" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/data/2017-07-30-pacific-oyster-larvae/2017-08-02-Larvae-Counts.xlsx
+++ b/data/2017-07-30-pacific-oyster-larvae/2017-08-02-Larvae-Counts.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="40">
   <si>
     <t>Plate Number</t>
   </si>
@@ -68,27 +68,6 @@
     <t>Number Dead in Bucket</t>
   </si>
   <si>
-    <t>Previous Total Larvae</t>
-  </si>
-  <si>
-    <t>Percent Alive</t>
-  </si>
-  <si>
-    <t>Percent Mortality</t>
-  </si>
-  <si>
-    <t>Well 1 Deformed</t>
-  </si>
-  <si>
-    <t>Well 2 Deformed</t>
-  </si>
-  <si>
-    <t>Average Deformed</t>
-  </si>
-  <si>
-    <t>Number Deformed in Bucket</t>
-  </si>
-  <si>
     <t>A1-A3</t>
   </si>
   <si>
@@ -125,9 +104,6 @@
     <t>Sample Volume (µL)</t>
   </si>
   <si>
-    <t>Well 3 Deformed</t>
-  </si>
-  <si>
     <t>Could have been dosed with Lugols too long? Dosed on 8/1/17. Difficult to tell if larvae are alive or dead if they are not moving.</t>
   </si>
   <si>
@@ -137,14 +113,47 @@
     <t>Tripour Volume (µL)</t>
   </si>
   <si>
-    <t>Percent Deformed</t>
+    <t>PLATE 1 COUNTS ARE VOID</t>
+  </si>
+  <si>
+    <t>Sedgewick rafter slide used</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Knocked over before I could sample and count</t>
+  </si>
+  <si>
+    <t>All three drops bled together</t>
+  </si>
+  <si>
+    <t>First two bled together</t>
+  </si>
+  <si>
+    <t>Percent Alive Since Last Sampling</t>
+  </si>
+  <si>
+    <t>Percent Mortality Since Last Sampling</t>
+  </si>
+  <si>
+    <t>Last Sampling Total Larvae</t>
+  </si>
+  <si>
+    <t>Total Initial Larvae</t>
+  </si>
+  <si>
+    <t>Total Percent Mortality</t>
+  </si>
+  <si>
+    <t>Total Percent Alive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,6 +165,29 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,17 +210,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -480,7 +517,7 @@
     <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -488,22 +525,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -512,66 +549,57 @@
         <v>4</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>42948</v>
@@ -598,73 +626,62 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L2">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="M2">
+        <v>26</v>
+      </c>
+      <c r="N2">
         <v>5</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
-        <v>26</v>
+        <f>AVERAGE(I2, K2, M2)</f>
+        <v>30.666666666666668</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <f>AVERAGE(J2, L2, N2)</f>
+        <v>3.6666666666666665</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <f>(O2/H2)*G2</f>
+        <v>61333.333333333336</v>
       </c>
       <c r="R2">
-        <f>AVERAGE(I2, L2, O2)</f>
-        <v>30.666666666666668</v>
+        <f>(P2/H2)*G2</f>
+        <v>7333.333333333333</v>
       </c>
       <c r="S2">
-        <f>AVERAGE(K2, M2, P2)</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="T2">
-        <f>AVERAGE(K2,N2,Q2)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U2">
-        <f>(R2/H2)*G2</f>
-        <v>61333.333333333336</v>
-      </c>
-      <c r="V2">
-        <f>(S2/H2)*G2</f>
-        <v>6666.666666666667</v>
-      </c>
-      <c r="W2">
-        <f>(T2/H2)*G2</f>
-        <v>666.66666666666663</v>
-      </c>
-      <c r="X2">
         <f>15000*4</f>
         <v>60000</v>
       </c>
-      <c r="Y2">
-        <f>U2/X2</f>
+      <c r="T2">
+        <f>Q2/S2</f>
         <v>1.0222222222222224</v>
       </c>
-      <c r="Z2">
-        <f>V2/X2</f>
-        <v>0.11111111111111112</v>
-      </c>
-      <c r="AA2">
-        <f>W2/X2</f>
-        <v>1.111111111111111E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="U2">
+        <f>R2/S2</f>
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="V2" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W2">
+        <f>Q2/V2</f>
+        <v>1.0222222222222224</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>42948</v>
@@ -691,73 +708,59 @@
         <v>2</v>
       </c>
       <c r="K3">
+        <v>19</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE(I3, K3, M3)</f>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="0">AVERAGE(J3, L3, N3)</f>
         <v>4</v>
       </c>
-      <c r="L3">
-        <v>19</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>6</v>
-      </c>
-      <c r="O3">
-        <v>13</v>
-      </c>
-      <c r="P3">
-        <v>10</v>
-      </c>
       <c r="Q3">
-        <v>1</v>
+        <f>(O3/H3)*G3</f>
+        <v>31111.111111111113</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R25" si="0">AVERAGE(I3, L3, O3)</f>
-        <v>18.666666666666668</v>
+        <f>(P3/H3)*G3</f>
+        <v>6666.666666666667</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S25" si="1">AVERAGE(K3, M3, P3)</f>
-        <v>4.666666666666667</v>
+        <f t="shared" ref="S3:S25" si="1">15000*4</f>
+        <v>60000</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T25" si="2">AVERAGE(K3,N3,Q3)</f>
-        <v>3.6666666666666665</v>
+        <f>Q3/S3</f>
+        <v>0.5185185185185186</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U25" si="3">(R3/H3)*G3</f>
-        <v>31111.111111111113</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V25" si="4">(S3/H3)*G3</f>
-        <v>7777.7777777777783</v>
+        <f>R3/S3</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="V3" s="3">
+        <v>60000</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W25" si="5">(T3/H3)*G3</f>
-        <v>6111.1111111111104</v>
-      </c>
-      <c r="X3">
-        <f t="shared" ref="X3:X25" si="6">15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" ref="Y3:Y25" si="7">U3/X3</f>
+        <f t="shared" ref="W3:W66" si="2">Q3/V3</f>
         <v>0.5185185185185186</v>
       </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z25" si="8">V3/X3</f>
-        <v>0.12962962962962965</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3:AA25" si="9">W3/X3</f>
-        <v>0.10185185185185185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>42948</v>
@@ -784,73 +787,59 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>30</v>
+        <f>AVERAGE(I4, K4, M4)</f>
+        <v>32</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <f>(O4/H4)*G4</f>
+        <v>53333.333333333336</v>
       </c>
       <c r="R4">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>(P4/H4)*G4</f>
+        <v>555.55555555555554</v>
       </c>
       <c r="S4">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>60000</v>
       </c>
       <c r="T4">
+        <f>Q4/S4</f>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="U4">
+        <f>R4/S4</f>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="V4" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W4">
         <f t="shared" si="2"/>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="3"/>
-        <v>53333.333333333336</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="4"/>
-        <v>1111.1111111111111</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="5"/>
-        <v>14444.444444444443</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="7"/>
         <v>0.88888888888888895</v>
       </c>
-      <c r="Z4">
-        <f t="shared" si="8"/>
-        <v>1.8518518518518517E-2</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="9"/>
-        <v>0.24074074074074073</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>42948</v>
@@ -877,73 +866,59 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>16</v>
+        <f>AVERAGE(I5, K5, M5)</f>
+        <v>21.333333333333332</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>2.3333333333333335</v>
       </c>
       <c r="Q5">
-        <v>22</v>
+        <f>(O5/H5)*G5</f>
+        <v>35555.555555555555</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
-        <v>21.333333333333332</v>
+        <f>(P5/H5)*G5</f>
+        <v>3888.8888888888891</v>
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
+        <v>60000</v>
       </c>
       <c r="T5">
+        <f>Q5/S5</f>
+        <v>0.59259259259259256</v>
+      </c>
+      <c r="U5">
+        <f>R5/S5</f>
+        <v>6.4814814814814825E-2</v>
+      </c>
+      <c r="V5" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W5">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="3"/>
-        <v>35555.555555555555</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="4"/>
-        <v>7777.7777777777783</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="5"/>
-        <v>23333.333333333336</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="7"/>
         <v>0.59259259259259256</v>
       </c>
-      <c r="Z5">
-        <f t="shared" si="8"/>
-        <v>0.12962962962962965</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="9"/>
-        <v>0.38888888888888895</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>42948</v>
@@ -970,73 +945,59 @@
         <v>12</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>10</v>
       </c>
       <c r="O6">
-        <v>30</v>
+        <f>AVERAGE(I6, K6, M6)</f>
+        <v>25.333333333333332</v>
       </c>
       <c r="P6">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>7.666666666666667</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <f>(O6/H6)*G6</f>
+        <v>42222.222222222226</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
-        <v>25.333333333333332</v>
+        <f>(P6/H6)*G6</f>
+        <v>12777.777777777779</v>
       </c>
       <c r="S6">
         <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
+        <v>60000</v>
       </c>
       <c r="T6">
+        <f>Q6/S6</f>
+        <v>0.70370370370370372</v>
+      </c>
+      <c r="U6">
+        <f>R6/S6</f>
+        <v>0.21296296296296299</v>
+      </c>
+      <c r="V6" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="2"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="3"/>
-        <v>42222.222222222226</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="4"/>
-        <v>7777.7777777777783</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="5"/>
-        <v>9444.4444444444453</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="7"/>
         <v>0.70370370370370372</v>
       </c>
-      <c r="Z6">
-        <f t="shared" si="8"/>
-        <v>0.12962962962962965</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="9"/>
-        <v>0.15740740740740741</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>42948</v>
@@ -1063,73 +1024,59 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="N7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O7">
-        <v>21</v>
+        <f>AVERAGE(I7, K7, M7)</f>
+        <v>26.666666666666668</v>
       </c>
       <c r="P7">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <f>(O7/H7)*G7</f>
+        <v>44444.444444444445</v>
       </c>
       <c r="R7">
-        <f t="shared" si="0"/>
-        <v>26.666666666666668</v>
+        <f>(P7/H7)*G7</f>
+        <v>13333.333333333334</v>
       </c>
       <c r="S7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>60000</v>
       </c>
       <c r="T7">
+        <f>Q7/S7</f>
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="U7">
+        <f>R7/S7</f>
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="V7" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="3"/>
-        <v>44444.444444444445</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="4"/>
-        <v>13333.333333333334</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="5"/>
-        <v>15000</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="7"/>
         <v>0.7407407407407407</v>
       </c>
-      <c r="Z7">
-        <f t="shared" si="8"/>
-        <v>0.22222222222222224</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="9"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>42948</v>
@@ -1156,73 +1103,59 @@
         <v>4</v>
       </c>
       <c r="K8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L8">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N8">
+        <v>24</v>
+      </c>
+      <c r="O8">
+        <f>AVERAGE(I8, K8, M8)</f>
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="O8">
-        <v>10</v>
-      </c>
-      <c r="P8">
-        <v>24</v>
-      </c>
       <c r="Q8">
-        <v>13</v>
+        <f>(O8/H8)*G8</f>
+        <v>33333.333333333336</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>(P8/H8)*G8</f>
+        <v>18333.333333333332</v>
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
-        <v>13.666666666666666</v>
+        <v>60000</v>
       </c>
       <c r="T8">
+        <f>Q8/S8</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="U8">
+        <f>R8/S8</f>
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="V8" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="3"/>
-        <v>33333.333333333336</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="4"/>
-        <v>22777.777777777774</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="5"/>
-        <v>20000</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="7"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="Z8">
-        <f t="shared" si="8"/>
-        <v>0.37962962962962954</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="9"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>42948</v>
@@ -1243,82 +1176,68 @@
         <v>300</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <f>AVERAGE(I9, K9, M9)</f>
+        <v>25.333333333333332</v>
       </c>
       <c r="P9">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <f>(O9/H9)*G9</f>
+        <v>42222.222222222226</v>
       </c>
       <c r="R9">
-        <f t="shared" si="0"/>
+        <f>(P9/H9)*G9</f>
         <v>0</v>
       </c>
       <c r="S9">
         <f t="shared" si="1"/>
-        <v>19.666666666666668</v>
+        <v>60000</v>
       </c>
       <c r="T9">
+        <f>Q9/S9</f>
+        <v>0.70370370370370372</v>
+      </c>
+      <c r="U9">
+        <f>R9/S9</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="4"/>
-        <v>32777.777777777781</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="8"/>
-        <v>0.54629629629629639</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+        <v>0.70370370370370372</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <v>42948</v>
@@ -1335,53 +1254,48 @@
       <c r="H10">
         <v>300</v>
       </c>
+      <c r="O10" t="e">
+        <f>AVERAGE(I10, K10, M10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" t="e">
+        <f>(O10/H10)*G10</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S10" t="e">
+        <f>(P10/H10)*G10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>60000</v>
       </c>
       <c r="T10" t="e">
+        <f>Q10/S10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" t="e">
+        <f>R10/S10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W10" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U10" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V10" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W10" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y10" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z10" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <v>42948</v>
@@ -1398,53 +1312,48 @@
       <c r="H11">
         <v>300</v>
       </c>
+      <c r="O11" t="e">
+        <f>AVERAGE(I11, K11, M11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" t="e">
+        <f>(O11/H11)*G11</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S11" t="e">
+        <f>(P11/H11)*G11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>60000</v>
       </c>
       <c r="T11" t="e">
+        <f>Q11/S11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" t="e">
+        <f>R11/S11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V11" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V11" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y11" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z11" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <v>42948</v>
@@ -1461,53 +1370,48 @@
       <c r="H12">
         <v>300</v>
       </c>
+      <c r="O12" t="e">
+        <f>AVERAGE(I12, K12, M12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" t="e">
+        <f>(O12/H12)*G12</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S12" t="e">
+        <f>(P12/H12)*G12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>60000</v>
       </c>
       <c r="T12" t="e">
+        <f>Q12/S12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" t="e">
+        <f>R12/S12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W12" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U12" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W12" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y12" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z12" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA12" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <v>42948</v>
@@ -1524,53 +1428,48 @@
       <c r="H13">
         <v>300</v>
       </c>
+      <c r="O13" t="e">
+        <f>AVERAGE(I13, K13, M13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" t="e">
+        <f>(O13/H13)*G13</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S13" t="e">
+        <f>(P13/H13)*G13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>60000</v>
       </c>
       <c r="T13" t="e">
+        <f>Q13/S13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" t="e">
+        <f>R13/S13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W13" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y13" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z13" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA13" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>42948</v>
@@ -1587,53 +1486,48 @@
       <c r="H14">
         <v>300</v>
       </c>
+      <c r="O14" t="e">
+        <f>AVERAGE(I14, K14, M14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" t="e">
+        <f>(O14/H14)*G14</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S14" t="e">
+        <f>(P14/H14)*G14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>60000</v>
       </c>
       <c r="T14" t="e">
+        <f>Q14/S14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" t="e">
+        <f>R14/S14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W14" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U14" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W14" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y14" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z14" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA14" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
         <v>42948</v>
@@ -1650,53 +1544,48 @@
       <c r="H15">
         <v>300</v>
       </c>
+      <c r="O15" t="e">
+        <f>AVERAGE(I15, K15, M15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" t="e">
+        <f>(O15/H15)*G15</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S15" t="e">
+        <f>(P15/H15)*G15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>60000</v>
       </c>
       <c r="T15" t="e">
+        <f>Q15/S15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" t="e">
+        <f>R15/S15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V15" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W15" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V15" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W15" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y15" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z15" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA15" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>42948</v>
@@ -1713,53 +1602,48 @@
       <c r="H16">
         <v>300</v>
       </c>
+      <c r="O16" t="e">
+        <f>AVERAGE(I16, K16, M16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" t="e">
+        <f>(O16/H16)*G16</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S16" t="e">
+        <f>(P16/H16)*G16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>60000</v>
       </c>
       <c r="T16" t="e">
+        <f>Q16/S16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" t="e">
+        <f>R16/S16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U16" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V16" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W16" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y16" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z16" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA16" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>42948</v>
@@ -1776,53 +1660,48 @@
       <c r="H17">
         <v>300</v>
       </c>
+      <c r="O17" t="e">
+        <f>AVERAGE(I17, K17, M17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" t="e">
+        <f>(O17/H17)*G17</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S17" t="e">
+        <f>(P17/H17)*G17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>60000</v>
       </c>
       <c r="T17" t="e">
+        <f>Q17/S17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" t="e">
+        <f>R17/S17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V17" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W17" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U17" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V17" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W17" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y17" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z17" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA17" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1">
         <v>42948</v>
@@ -1839,53 +1718,48 @@
       <c r="H18">
         <v>300</v>
       </c>
+      <c r="O18" t="e">
+        <f>AVERAGE(I18, K18, M18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" t="e">
+        <f>(O18/H18)*G18</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S18" t="e">
+        <f>(P18/H18)*G18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>60000</v>
       </c>
       <c r="T18" t="e">
+        <f>Q18/S18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U18" t="e">
+        <f>R18/S18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V18" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W18" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U18" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V18" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W18" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y18" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z18" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA18" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <v>42948</v>
@@ -1902,53 +1776,48 @@
       <c r="H19">
         <v>300</v>
       </c>
+      <c r="O19" t="e">
+        <f>AVERAGE(I19, K19, M19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q19" t="e">
+        <f>(O19/H19)*G19</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S19" t="e">
+        <f>(P19/H19)*G19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S19">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>60000</v>
       </c>
       <c r="T19" t="e">
+        <f>Q19/S19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U19" t="e">
+        <f>R19/S19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V19" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W19" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U19" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W19" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y19" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z19" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA19" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1">
         <v>42948</v>
@@ -1965,53 +1834,48 @@
       <c r="H20">
         <v>300</v>
       </c>
+      <c r="O20" t="e">
+        <f>AVERAGE(I20, K20, M20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q20" t="e">
+        <f>(O20/H20)*G20</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S20" t="e">
+        <f>(P20/H20)*G20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>60000</v>
       </c>
       <c r="T20" t="e">
+        <f>Q20/S20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U20" t="e">
+        <f>R20/S20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V20" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W20" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U20" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V20" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W20" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y20" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z20" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA20" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1">
         <v>42948</v>
@@ -2028,53 +1892,48 @@
       <c r="H21">
         <v>300</v>
       </c>
+      <c r="O21" t="e">
+        <f>AVERAGE(I21, K21, M21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q21" t="e">
+        <f>(O21/H21)*G21</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S21" t="e">
+        <f>(P21/H21)*G21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>60000</v>
       </c>
       <c r="T21" t="e">
+        <f>Q21/S21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U21" t="e">
+        <f>R21/S21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V21" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W21" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U21" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V21" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W21" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y21" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z21" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA21" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1">
         <v>42948</v>
@@ -2091,53 +1950,48 @@
       <c r="H22">
         <v>300</v>
       </c>
+      <c r="O22" t="e">
+        <f>AVERAGE(I22, K22, M22)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" t="e">
+        <f>(O22/H22)*G22</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R22" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S22" t="e">
+        <f>(P22/H22)*G22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>60000</v>
       </c>
       <c r="T22" t="e">
+        <f>Q22/S22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U22" t="e">
+        <f>R22/S22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W22" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U22" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W22" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y22" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z22" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA22" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
         <v>42948</v>
@@ -2154,53 +2008,48 @@
       <c r="H23">
         <v>300</v>
       </c>
+      <c r="O23" t="e">
+        <f>AVERAGE(I23, K23, M23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q23" t="e">
+        <f>(O23/H23)*G23</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R23" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S23" t="e">
+        <f>(P23/H23)*G23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>60000</v>
       </c>
       <c r="T23" t="e">
+        <f>Q23/S23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U23" t="e">
+        <f>R23/S23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V23" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W23" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U23" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V23" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y23" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z23" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA23" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1">
         <v>42948</v>
@@ -2217,53 +2066,48 @@
       <c r="H24">
         <v>300</v>
       </c>
+      <c r="O24" t="e">
+        <f>AVERAGE(I24, K24, M24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" t="e">
+        <f>(O24/H24)*G24</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R24" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S24" t="e">
+        <f>(P24/H24)*G24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>60000</v>
       </c>
       <c r="T24" t="e">
+        <f>Q24/S24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" t="e">
+        <f>R24/S24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U24" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V24" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W24" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y24" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z24" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA24" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
         <v>42948</v>
@@ -2280,46 +2124,2994 @@
       <c r="H25">
         <v>300</v>
       </c>
+      <c r="O25" t="e">
+        <f>AVERAGE(I25, K25, M25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" t="e">
+        <f>(O25/H25)*G25</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R25" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" t="e">
+        <f>(P25/H25)*G25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>60000</v>
       </c>
       <c r="T25" t="e">
+        <f>Q25/S25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" t="e">
+        <f>R25/S25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" s="3">
+        <v>60000</v>
+      </c>
+      <c r="W25" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U25" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" t="e">
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D26" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>60</v>
+      </c>
+      <c r="G26">
+        <v>550000</v>
+      </c>
+      <c r="H26">
+        <v>250</v>
+      </c>
+      <c r="I26">
+        <v>21</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>17</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>23</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ref="O26:P73" si="3">AVERAGE(I26, K26, M26)</f>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26:Q73" si="4">(O26/H26)*G26</f>
+        <v>44733.333333333328</v>
+      </c>
+      <c r="R26">
+        <f t="shared" ref="R26:R73" si="5">(P26/H26)*G26</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="3"/>
+      <c r="Y26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D27" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>48</v>
+      </c>
+      <c r="G27">
+        <v>300000</v>
+      </c>
+      <c r="H27">
+        <v>250</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" t="e">
+        <v>0</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="Y25" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z25" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA25" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
+        <v>3200</v>
+      </c>
+      <c r="V27" s="3"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D28" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E28">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>60</v>
+      </c>
+      <c r="G28">
+        <v>550000</v>
+      </c>
+      <c r="H28">
+        <v>250</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>15</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>27</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="4"/>
+        <v>33000</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D29" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E29">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>48</v>
+      </c>
+      <c r="G29">
+        <v>350000</v>
+      </c>
+      <c r="H29">
+        <v>250</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>4200</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="3"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D30" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E30">
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <v>60</v>
+      </c>
+      <c r="G30">
+        <v>550000</v>
+      </c>
+      <c r="H30">
+        <v>250</v>
+      </c>
+      <c r="I30">
+        <v>9</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>12</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>17</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>12.666666666666666</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>27866.666666666664</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="3"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D31" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>48</v>
+      </c>
+      <c r="G31">
+        <v>300000</v>
+      </c>
+      <c r="H31">
+        <v>250</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="3"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D32" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>60</v>
+      </c>
+      <c r="G32">
+        <v>350000</v>
+      </c>
+      <c r="H32">
+        <v>250</v>
+      </c>
+      <c r="I32">
+        <v>52</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="4"/>
+        <v>72800</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="3"/>
+      <c r="Y32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D33" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>48</v>
+      </c>
+      <c r="G33">
+        <v>350000</v>
+      </c>
+      <c r="H33">
+        <v>250</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="4"/>
+        <v>1866.6666666666665</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="5"/>
+        <v>933.33333333333326</v>
+      </c>
+      <c r="V33" s="3"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D34" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>60</v>
+      </c>
+      <c r="G34">
+        <v>350000</v>
+      </c>
+      <c r="H34">
+        <v>250</v>
+      </c>
+      <c r="I34">
+        <v>45</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>13</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>22</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="3"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="4"/>
+        <v>37333.333333333336</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="5"/>
+        <v>466.66666666666663</v>
+      </c>
+      <c r="V34" s="3"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D35" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>48</v>
+      </c>
+      <c r="G35">
+        <v>300000</v>
+      </c>
+      <c r="H35">
+        <v>250</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="V35" s="3"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D36" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>60</v>
+      </c>
+      <c r="G36">
+        <v>325000</v>
+      </c>
+      <c r="H36">
+        <v>250</v>
+      </c>
+      <c r="I36">
+        <v>65</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36">
+        <v>25</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="4"/>
+        <v>58500</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="3"/>
+      <c r="Y36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D37" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>48</v>
+      </c>
+      <c r="G37">
+        <v>290000</v>
+      </c>
+      <c r="H37">
+        <v>250</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="5"/>
+        <v>1160</v>
+      </c>
+      <c r="V37" s="3"/>
+      <c r="Y37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D38" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>60</v>
+      </c>
+      <c r="G38">
+        <v>350000</v>
+      </c>
+      <c r="H38">
+        <v>250</v>
+      </c>
+      <c r="I38">
+        <v>39</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>25</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>31</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="3"/>
+        <v>31.666666666666668</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="4"/>
+        <v>44333.333333333336</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="5"/>
+        <v>1400</v>
+      </c>
+      <c r="V38" s="3"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D39" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>48</v>
+      </c>
+      <c r="G39">
+        <v>290000</v>
+      </c>
+      <c r="H39">
+        <v>250</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="5"/>
+        <v>1160</v>
+      </c>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D40" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E40">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>60</v>
+      </c>
+      <c r="G40">
+        <v>350000</v>
+      </c>
+      <c r="H40">
+        <v>250</v>
+      </c>
+      <c r="I40">
+        <v>34</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>33</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>21</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="3"/>
+        <v>29.333333333333332</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="4"/>
+        <v>41066.666666666664</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="5"/>
+        <v>933.33333333333326</v>
+      </c>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D41" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>48</v>
+      </c>
+      <c r="G41">
+        <v>240000</v>
+      </c>
+      <c r="H41">
+        <v>250</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>7</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="3"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="4"/>
+        <v>3520</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="5"/>
+        <v>960</v>
+      </c>
+      <c r="V41" s="3"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D42" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E42">
+        <v>23</v>
+      </c>
+      <c r="F42">
+        <v>60</v>
+      </c>
+      <c r="G42">
+        <v>350000</v>
+      </c>
+      <c r="H42">
+        <v>250</v>
+      </c>
+      <c r="I42">
+        <v>13</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>16</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>10</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="4"/>
+        <v>18200</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="3"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D43" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E43">
+        <v>23</v>
+      </c>
+      <c r="F43">
+        <v>48</v>
+      </c>
+      <c r="G43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P43" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>30</v>
+      </c>
+      <c r="R43" t="s">
+        <v>30</v>
+      </c>
+      <c r="S43" t="s">
+        <v>30</v>
+      </c>
+      <c r="T43" t="s">
+        <v>30</v>
+      </c>
+      <c r="U43" t="s">
+        <v>30</v>
+      </c>
+      <c r="V43" t="s">
+        <v>30</v>
+      </c>
+      <c r="W43" t="s">
+        <v>30</v>
+      </c>
+      <c r="X43" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D44" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E44">
+        <v>16</v>
+      </c>
+      <c r="F44">
+        <v>60</v>
+      </c>
+      <c r="G44">
+        <v>350000</v>
+      </c>
+      <c r="H44">
+        <v>250</v>
+      </c>
+      <c r="I44">
+        <v>18</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>22</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>26</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="4"/>
+        <v>30800</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="5"/>
+        <v>1866.6666666666665</v>
+      </c>
+      <c r="V44" s="3"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D45" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E45">
+        <v>16</v>
+      </c>
+      <c r="F45">
+        <v>48</v>
+      </c>
+      <c r="G45">
+        <v>300000</v>
+      </c>
+      <c r="H45">
+        <v>250</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="V45" s="3"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D46" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>60</v>
+      </c>
+      <c r="G46">
+        <v>350000</v>
+      </c>
+      <c r="H46">
+        <v>250</v>
+      </c>
+      <c r="I46">
+        <v>26</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>29</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>19</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="3"/>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="4"/>
+        <v>34533.333333333336</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="5"/>
+        <v>1400</v>
+      </c>
+      <c r="V46" s="3"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D47" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>48</v>
+      </c>
+      <c r="G47">
+        <v>310000</v>
+      </c>
+      <c r="H47">
+        <v>250</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="4"/>
+        <v>826.66666666666663</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="5"/>
+        <v>1240</v>
+      </c>
+      <c r="V47" s="3"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D48" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E48">
+        <v>22</v>
+      </c>
+      <c r="F48">
+        <v>60</v>
+      </c>
+      <c r="G48">
+        <v>300000</v>
+      </c>
+      <c r="H48">
+        <v>250</v>
+      </c>
+      <c r="I48">
+        <v>23</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>33</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>30</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="3"/>
+        <v>28.666666666666668</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="4"/>
+        <v>34400</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+      <c r="V48" s="3"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D49" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E49">
+        <v>22</v>
+      </c>
+      <c r="F49">
+        <v>48</v>
+      </c>
+      <c r="G49">
+        <v>200000</v>
+      </c>
+      <c r="H49">
+        <v>250</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="4"/>
+        <v>1333.3333333333335</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="5"/>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="V49" s="3"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D50" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>60</v>
+      </c>
+      <c r="G50">
+        <v>310000</v>
+      </c>
+      <c r="H50">
+        <v>250</v>
+      </c>
+      <c r="I50">
+        <v>34</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>30</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>26</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="4"/>
+        <v>37200</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="5"/>
+        <v>1240</v>
+      </c>
+      <c r="V50" s="3"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D51" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>48</v>
+      </c>
+      <c r="G51">
+        <v>200000</v>
+      </c>
+      <c r="H51">
+        <v>250</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="4"/>
+        <v>2400</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="5"/>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="V51" s="3"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D52" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E52">
+        <v>14</v>
+      </c>
+      <c r="F52">
+        <v>60</v>
+      </c>
+      <c r="G52">
+        <v>300000</v>
+      </c>
+      <c r="H52">
+        <v>250</v>
+      </c>
+      <c r="I52">
+        <v>30</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>38</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>25</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="4"/>
+        <v>37200</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="5"/>
+        <v>1600</v>
+      </c>
+      <c r="V52" s="3"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D53" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E53">
+        <v>14</v>
+      </c>
+      <c r="F53">
+        <v>48</v>
+      </c>
+      <c r="G53">
+        <v>200000</v>
+      </c>
+      <c r="H53">
+        <v>250</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="4"/>
+        <v>1066.6666666666667</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="5"/>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="V53" s="3"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D54" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E54">
+        <v>21</v>
+      </c>
+      <c r="F54">
+        <v>60</v>
+      </c>
+      <c r="G54">
+        <v>300000</v>
+      </c>
+      <c r="H54">
+        <v>250</v>
+      </c>
+      <c r="I54">
+        <v>21</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>21</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>15</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="4"/>
+        <v>22800</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="V54" s="3"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D55" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E55">
+        <v>21</v>
+      </c>
+      <c r="F55">
+        <v>48</v>
+      </c>
+      <c r="G55">
+        <v>200000</v>
+      </c>
+      <c r="H55">
+        <v>250</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="5"/>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D56" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E56">
+        <v>15</v>
+      </c>
+      <c r="F56">
+        <v>60</v>
+      </c>
+      <c r="G56">
+        <v>350000</v>
+      </c>
+      <c r="H56">
+        <v>250</v>
+      </c>
+      <c r="I56">
+        <v>71</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>30</v>
+      </c>
+      <c r="L56" t="s">
+        <v>30</v>
+      </c>
+      <c r="M56">
+        <v>29</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="4"/>
+        <v>70000</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D57" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E57">
+        <v>15</v>
+      </c>
+      <c r="F57">
+        <v>48</v>
+      </c>
+      <c r="G57">
+        <v>240000</v>
+      </c>
+      <c r="H57">
+        <v>250</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="4"/>
+        <v>640</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="5"/>
+        <v>1280</v>
+      </c>
+      <c r="V57" s="3"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D58" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E58">
+        <v>19</v>
+      </c>
+      <c r="F58">
+        <v>60</v>
+      </c>
+      <c r="G58">
+        <v>310000</v>
+      </c>
+      <c r="H58">
+        <v>250</v>
+      </c>
+      <c r="I58">
+        <v>30</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>25</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>32</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="4"/>
+        <v>35960</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="3"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D59" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E59">
+        <v>19</v>
+      </c>
+      <c r="F59">
+        <v>48</v>
+      </c>
+      <c r="G59">
+        <v>210000</v>
+      </c>
+      <c r="H59">
+        <v>250</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V59" s="3"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D60" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E60">
+        <v>24</v>
+      </c>
+      <c r="F60">
+        <v>60</v>
+      </c>
+      <c r="G60">
+        <v>350000</v>
+      </c>
+      <c r="H60">
+        <v>250</v>
+      </c>
+      <c r="I60">
+        <v>32</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>23</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>31</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="3"/>
+        <v>28.666666666666668</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="4"/>
+        <v>40133.333333333336</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="3"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D61" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E61">
+        <v>24</v>
+      </c>
+      <c r="F61">
+        <v>48</v>
+      </c>
+      <c r="G61">
+        <v>300000</v>
+      </c>
+      <c r="H61">
+        <v>250</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>4</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="4"/>
+        <v>4800</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="V61" s="3"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D62" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>60</v>
+      </c>
+      <c r="G62">
+        <v>300000</v>
+      </c>
+      <c r="H62">
+        <v>250</v>
+      </c>
+      <c r="I62">
+        <v>31</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>40</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>33</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="3"/>
+        <v>34.666666666666664</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="4"/>
+        <v>41600</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="V62" s="3"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D63" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>48</v>
+      </c>
+      <c r="G63">
+        <v>225000</v>
+      </c>
+      <c r="H63">
+        <v>250</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="V63" s="3"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D64" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>60</v>
+      </c>
+      <c r="G64">
+        <v>300000</v>
+      </c>
+      <c r="H64">
+        <v>250</v>
+      </c>
+      <c r="I64">
+        <v>26</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>38</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>30</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="3"/>
+        <v>31.333333333333332</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="4"/>
+        <v>37600</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+      <c r="V64" s="3"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D65" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>48</v>
+      </c>
+      <c r="G65">
+        <v>200000</v>
+      </c>
+      <c r="H65">
+        <v>250</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>3</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="V65" s="3"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D66" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E66">
+        <v>13</v>
+      </c>
+      <c r="F66">
+        <v>60</v>
+      </c>
+      <c r="G66">
+        <v>300000</v>
+      </c>
+      <c r="H66">
+        <v>250</v>
+      </c>
+      <c r="I66">
+        <v>34</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>41</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="4"/>
+        <v>31200</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="3"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D67" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E67">
+        <v>13</v>
+      </c>
+      <c r="F67">
+        <v>48</v>
+      </c>
+      <c r="G67">
+        <v>250000</v>
+      </c>
+      <c r="H67">
+        <v>250</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="4"/>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="5"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D68" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E68">
+        <v>12</v>
+      </c>
+      <c r="F68">
+        <v>60</v>
+      </c>
+      <c r="G68">
+        <v>300000</v>
+      </c>
+      <c r="H68">
+        <v>250</v>
+      </c>
+      <c r="I68">
+        <v>33</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>37</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>29</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="4"/>
+        <v>39600</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="3"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D69" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E69">
+        <v>12</v>
+      </c>
+      <c r="F69">
+        <v>48</v>
+      </c>
+      <c r="G69">
+        <v>225000</v>
+      </c>
+      <c r="H69">
+        <v>250</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="V69" s="3"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D70" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E70">
+        <v>20</v>
+      </c>
+      <c r="F70">
+        <v>60</v>
+      </c>
+      <c r="G70">
+        <v>300000</v>
+      </c>
+      <c r="H70">
+        <v>250</v>
+      </c>
+      <c r="I70">
+        <v>39</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>25</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>21</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="3"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="4"/>
+        <v>34000</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="V70" s="3"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D71" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E71">
+        <v>20</v>
+      </c>
+      <c r="F71">
+        <v>48</v>
+      </c>
+      <c r="G71">
+        <v>200000</v>
+      </c>
+      <c r="H71">
+        <v>250</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="4"/>
+        <v>1333.3333333333335</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V71" s="3"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D72" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E72">
+        <v>6</v>
+      </c>
+      <c r="F72">
+        <v>60</v>
+      </c>
+      <c r="G72">
+        <v>325000</v>
+      </c>
+      <c r="H72">
+        <v>250</v>
+      </c>
+      <c r="I72">
+        <v>20</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>26</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>28</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="3"/>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="4"/>
+        <v>32066.666666666668</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="3"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="1">
+        <v>42950</v>
+      </c>
+      <c r="D73" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E73">
+        <v>6</v>
+      </c>
+      <c r="F73">
+        <v>48</v>
+      </c>
+      <c r="G73">
+        <v>250000</v>
+      </c>
+      <c r="H73">
+        <v>250</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="4"/>
+        <v>666.66666666666663</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V73" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/2017-07-30-pacific-oyster-larvae/2017-08-02-Larvae-Counts.xlsx
+++ b/data/2017-07-30-pacific-oyster-larvae/2017-08-02-Larvae-Counts.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="36">
   <si>
     <t>Plate Number</t>
   </si>
@@ -36,24 +36,6 @@
   </si>
   <si>
     <t>Well Numbers</t>
-  </si>
-  <si>
-    <t>Well 1 Alive</t>
-  </si>
-  <si>
-    <t>Well 1 Dead</t>
-  </si>
-  <si>
-    <t>Well 2 Alive</t>
-  </si>
-  <si>
-    <t>Well 2 Dead</t>
-  </si>
-  <si>
-    <t>Well 3 Alive</t>
-  </si>
-  <si>
-    <t>Well 3 Dead</t>
   </si>
   <si>
     <t>Average Alive</t>
@@ -104,9 +86,6 @@
     <t>Sample Volume (µL)</t>
   </si>
   <si>
-    <t>Could have been dosed with Lugols too long? Dosed on 8/1/17. Difficult to tell if larvae are alive or dead if they are not moving.</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -131,29 +110,38 @@
     <t>First two bled together</t>
   </si>
   <si>
-    <t>Percent Alive Since Last Sampling</t>
+    <t>Original Total Larvae</t>
   </si>
   <si>
-    <t>Percent Mortality Since Last Sampling</t>
+    <t>Cumulative Percent Alive</t>
   </si>
   <si>
-    <t>Last Sampling Total Larvae</t>
+    <t>Count 1 Alive</t>
   </si>
   <si>
-    <t>Total Initial Larvae</t>
+    <t>Count 1 Dead</t>
   </si>
   <si>
-    <t>Total Percent Mortality</t>
+    <t>Count 2 Alive</t>
   </si>
   <si>
-    <t>Total Percent Alive</t>
+    <t>Count 2 Dead</t>
+  </si>
+  <si>
+    <t>Count 3 Alive</t>
+  </si>
+  <si>
+    <t>Count 3 Dead</t>
+  </si>
+  <si>
+    <t>Stocking Density (Larvae/mL)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,13 +173,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -210,22 +191,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,23 +485,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="Q95" sqref="Q95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -525,81 +510,72 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="T1" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>42948</v>
@@ -646,11 +622,11 @@
         <v>3.6666666666666665</v>
       </c>
       <c r="Q2">
-        <f>(O2/H2)*G2</f>
+        <f t="shared" ref="Q2:Q25" si="0">(O2/H2)*G2</f>
         <v>61333.333333333336</v>
       </c>
       <c r="R2">
-        <f>(P2/H2)*G2</f>
+        <f t="shared" ref="R2:R25" si="1">(P2/H2)*G2</f>
         <v>7333.333333333333</v>
       </c>
       <c r="S2">
@@ -658,30 +634,23 @@
         <v>60000</v>
       </c>
       <c r="T2">
-        <f>Q2/S2</f>
+        <f t="shared" ref="T2:T25" si="2">Q2/S2</f>
         <v>1.0222222222222224</v>
       </c>
       <c r="U2">
-        <f>R2/S2</f>
-        <v>0.12222222222222222</v>
-      </c>
-      <c r="V2" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W2">
-        <f>Q2/V2</f>
-        <v>1.0222222222222224</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+        <f>Q2/15000</f>
+        <v>4.0888888888888895</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>42948</v>
@@ -720,47 +689,43 @@
         <v>10</v>
       </c>
       <c r="O3">
-        <f>AVERAGE(I3, K3, M3)</f>
+        <f t="shared" ref="O3:O25" si="3">AVERAGE(I3, K3, M3)</f>
         <v>18.666666666666668</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="0">AVERAGE(J3, L3, N3)</f>
+        <f t="shared" ref="P3:P66" si="4">AVERAGE(J3, L3, N3)</f>
         <v>4</v>
       </c>
       <c r="Q3">
-        <f>(O3/H3)*G3</f>
+        <f t="shared" si="0"/>
         <v>31111.111111111113</v>
       </c>
       <c r="R3">
-        <f>(P3/H3)*G3</f>
+        <f t="shared" si="1"/>
         <v>6666.666666666667</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S25" si="1">15000*4</f>
+        <f t="shared" ref="S3:S75" si="5">15000*4</f>
         <v>60000</v>
       </c>
       <c r="T3">
-        <f>Q3/S3</f>
+        <f t="shared" si="2"/>
         <v>0.5185185185185186</v>
       </c>
       <c r="U3">
-        <f>R3/S3</f>
-        <v>0.11111111111111112</v>
-      </c>
-      <c r="V3" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W66" si="2">Q3/V3</f>
-        <v>0.5185185185185186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+        <f t="shared" ref="U3:U66" si="6">Q3/15000</f>
+        <v>2.0740740740740744</v>
+      </c>
+      <c r="V3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>42948</v>
@@ -799,47 +764,43 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <f>AVERAGE(I4, K4, M4)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="P4">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q4">
-        <f>(O4/H4)*G4</f>
         <v>53333.333333333336</v>
       </c>
       <c r="R4">
-        <f>(P4/H4)*G4</f>
+        <f t="shared" si="1"/>
         <v>555.55555555555554</v>
       </c>
       <c r="S4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
       <c r="T4">
-        <f>Q4/S4</f>
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="U4">
-        <f>R4/S4</f>
-        <v>9.2592592592592587E-3</v>
-      </c>
-      <c r="V4" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W4">
         <f t="shared" si="2"/>
         <v>0.88888888888888895</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="U4">
+        <f t="shared" si="6"/>
+        <v>3.5555555555555558</v>
+      </c>
+      <c r="V4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>42948</v>
@@ -878,47 +839,43 @@
         <v>5</v>
       </c>
       <c r="O5">
-        <f>AVERAGE(I5, K5, M5)</f>
+        <f t="shared" si="3"/>
         <v>21.333333333333332</v>
       </c>
       <c r="P5">
+        <f t="shared" si="4"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="Q5">
-        <f>(O5/H5)*G5</f>
         <v>35555.555555555555</v>
       </c>
       <c r="R5">
-        <f>(P5/H5)*G5</f>
+        <f t="shared" si="1"/>
         <v>3888.8888888888891</v>
       </c>
       <c r="S5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
       <c r="T5">
-        <f>Q5/S5</f>
-        <v>0.59259259259259256</v>
-      </c>
-      <c r="U5">
-        <f>R5/S5</f>
-        <v>6.4814814814814825E-2</v>
-      </c>
-      <c r="V5" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W5">
         <f t="shared" si="2"/>
         <v>0.59259259259259256</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="U5">
+        <f t="shared" si="6"/>
+        <v>2.3703703703703702</v>
+      </c>
+      <c r="V5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>42948</v>
@@ -957,47 +914,43 @@
         <v>10</v>
       </c>
       <c r="O6">
-        <f>AVERAGE(I6, K6, M6)</f>
+        <f t="shared" si="3"/>
         <v>25.333333333333332</v>
       </c>
       <c r="P6">
+        <f t="shared" si="4"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="0"/>
-        <v>7.666666666666667</v>
-      </c>
-      <c r="Q6">
-        <f>(O6/H6)*G6</f>
         <v>42222.222222222226</v>
       </c>
       <c r="R6">
-        <f>(P6/H6)*G6</f>
+        <f t="shared" si="1"/>
         <v>12777.777777777779</v>
       </c>
       <c r="S6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
       <c r="T6">
-        <f>Q6/S6</f>
-        <v>0.70370370370370372</v>
-      </c>
-      <c r="U6">
-        <f>R6/S6</f>
-        <v>0.21296296296296299</v>
-      </c>
-      <c r="V6" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W6">
         <f t="shared" si="2"/>
         <v>0.70370370370370372</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="U6">
+        <f t="shared" si="6"/>
+        <v>2.8148148148148149</v>
+      </c>
+      <c r="V6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>42948</v>
@@ -1036,47 +989,43 @@
         <v>13</v>
       </c>
       <c r="O7">
-        <f>AVERAGE(I7, K7, M7)</f>
+        <f t="shared" si="3"/>
         <v>26.666666666666668</v>
       </c>
       <c r="P7">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="Q7">
-        <f>(O7/H7)*G7</f>
         <v>44444.444444444445</v>
       </c>
       <c r="R7">
-        <f>(P7/H7)*G7</f>
+        <f t="shared" si="1"/>
         <v>13333.333333333334</v>
       </c>
       <c r="S7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
       <c r="T7">
-        <f>Q7/S7</f>
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="U7">
-        <f>R7/S7</f>
-        <v>0.22222222222222224</v>
-      </c>
-      <c r="V7" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W7">
         <f t="shared" si="2"/>
         <v>0.7407407407407407</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="U7">
+        <f t="shared" si="6"/>
+        <v>2.9629629629629628</v>
+      </c>
+      <c r="V7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
         <v>42948</v>
@@ -1115,47 +1064,43 @@
         <v>24</v>
       </c>
       <c r="O8">
-        <f>AVERAGE(I8, K8, M8)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="P8">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="Q8">
-        <f>(O8/H8)*G8</f>
         <v>33333.333333333336</v>
       </c>
       <c r="R8">
-        <f>(P8/H8)*G8</f>
+        <f t="shared" si="1"/>
         <v>18333.333333333332</v>
       </c>
       <c r="S8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
       <c r="T8">
-        <f>Q8/S8</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="U8">
-        <f>R8/S8</f>
-        <v>0.30555555555555552</v>
-      </c>
-      <c r="V8" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W8">
         <f t="shared" si="2"/>
         <v>0.55555555555555558</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="U8">
+        <f t="shared" si="6"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="V8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>42948</v>
@@ -1194,54 +1139,50 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <f>AVERAGE(I9, K9, M9)</f>
+        <f t="shared" si="3"/>
         <v>25.333333333333332</v>
       </c>
       <c r="P9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <f>(O9/H9)*G9</f>
         <v>42222.222222222226</v>
       </c>
       <c r="R9">
-        <f>(P9/H9)*G9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
       <c r="T9">
-        <f>Q9/S9</f>
-        <v>0.70370370370370372</v>
-      </c>
-      <c r="U9">
-        <f>R9/S9</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W9">
         <f t="shared" si="2"/>
         <v>0.70370370370370372</v>
       </c>
-      <c r="Y9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="U9">
+        <f t="shared" si="6"/>
+        <v>2.8148148148148149</v>
+      </c>
+      <c r="V9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>42948</v>
       </c>
+      <c r="D10" s="1">
+        <v>42951</v>
+      </c>
       <c r="E10">
         <v>19</v>
       </c>
@@ -1254,52 +1195,66 @@
       <c r="H10">
         <v>300</v>
       </c>
-      <c r="O10" t="e">
-        <f>AVERAGE(I10, K10, M10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10" t="e">
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>28</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>41</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>29.666666666666668</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q10" t="e">
-        <f>(O10/H10)*G10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R10" t="e">
-        <f>(P10/H10)*G10</f>
-        <v>#DIV/0!</v>
+        <v>49444.444444444445</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>555.55555555555554</v>
       </c>
       <c r="S10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
-      <c r="T10" t="e">
-        <f>Q10/S10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U10" t="e">
-        <f>R10/S10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V10" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W10" t="e">
+      <c r="T10">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.82407407407407407</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="6"/>
+        <v>3.2962962962962963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>42948</v>
       </c>
+      <c r="D11" s="1">
+        <v>42951</v>
+      </c>
       <c r="E11">
         <v>20</v>
       </c>
@@ -1312,52 +1267,66 @@
       <c r="H11">
         <v>300</v>
       </c>
-      <c r="O11" t="e">
-        <f>AVERAGE(I11, K11, M11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P11" t="e">
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>23</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>27</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" t="e">
-        <f>(O11/H11)*G11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R11" t="e">
-        <f>(P11/H11)*G11</f>
-        <v>#DIV/0!</v>
+        <v>44444.444444444445</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
-      <c r="T11" t="e">
-        <f>Q11/S11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U11" t="e">
-        <f>R11/S11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V11" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W11" t="e">
+      <c r="T11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="6"/>
+        <v>2.9629629629629628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
         <v>42948</v>
       </c>
+      <c r="D12" s="1">
+        <v>42951</v>
+      </c>
       <c r="E12">
         <v>10</v>
       </c>
@@ -1370,52 +1339,66 @@
       <c r="H12">
         <v>300</v>
       </c>
-      <c r="O12" t="e">
-        <f>AVERAGE(I12, K12, M12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P12" t="e">
+      <c r="I12">
+        <v>24</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>44</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>28</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12" t="e">
-        <f>(O12/H12)*G12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R12" t="e">
-        <f>(P12/H12)*G12</f>
-        <v>#DIV/0!</v>
+        <v>53333.333333333336</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
-      <c r="T12" t="e">
-        <f>Q12/S12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12" t="e">
-        <f>R12/S12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V12" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W12" t="e">
+      <c r="T12">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="6"/>
+        <v>3.5555555555555558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>42948</v>
       </c>
+      <c r="D13" s="1">
+        <v>42951</v>
+      </c>
       <c r="E13">
         <v>21</v>
       </c>
@@ -1428,52 +1411,66 @@
       <c r="H13">
         <v>300</v>
       </c>
-      <c r="O13" t="e">
-        <f>AVERAGE(I13, K13, M13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P13" t="e">
+      <c r="I13">
+        <v>32</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>34</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>37</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>34.333333333333336</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q13" t="e">
-        <f>(O13/H13)*G13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R13" t="e">
-        <f>(P13/H13)*G13</f>
-        <v>#DIV/0!</v>
+        <v>57222.222222222226</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
-      <c r="T13" t="e">
-        <f>Q13/S13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U13" t="e">
-        <f>R13/S13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W13" t="e">
+      <c r="T13">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.95370370370370372</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="6"/>
+        <v>3.8148148148148149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <v>42948</v>
       </c>
+      <c r="D14" s="1">
+        <v>42951</v>
+      </c>
       <c r="E14">
         <v>11</v>
       </c>
@@ -1486,52 +1483,66 @@
       <c r="H14">
         <v>300</v>
       </c>
-      <c r="O14" t="e">
-        <f>AVERAGE(I14, K14, M14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P14" t="e">
+      <c r="I14">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>19</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>17</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q14" t="e">
-        <f>(O14/H14)*G14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R14" t="e">
-        <f>(P14/H14)*G14</f>
-        <v>#DIV/0!</v>
+        <v>27777.777777777781</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
-      <c r="T14" t="e">
-        <f>Q14/S14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U14" t="e">
-        <f>R14/S14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W14" t="e">
+      <c r="T14">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.46296296296296302</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="6"/>
+        <v>1.8518518518518521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
         <v>42948</v>
       </c>
+      <c r="D15" s="1">
+        <v>42951</v>
+      </c>
       <c r="E15">
         <v>1</v>
       </c>
@@ -1544,52 +1555,66 @@
       <c r="H15">
         <v>300</v>
       </c>
-      <c r="O15" t="e">
-        <f>AVERAGE(I15, K15, M15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P15" t="e">
+      <c r="I15">
+        <v>23</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>34</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>43</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q15" t="e">
-        <f>(O15/H15)*G15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R15" t="e">
-        <f>(P15/H15)*G15</f>
-        <v>#DIV/0!</v>
+        <v>55555.555555555562</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
-      <c r="T15" t="e">
-        <f>Q15/S15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U15" t="e">
-        <f>R15/S15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V15" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W15" t="e">
+      <c r="T15">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.92592592592592604</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="6"/>
+        <v>3.7037037037037042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <v>42948</v>
       </c>
+      <c r="D16" s="1">
+        <v>42951</v>
+      </c>
       <c r="E16">
         <v>12</v>
       </c>
@@ -1602,52 +1627,66 @@
       <c r="H16">
         <v>300</v>
       </c>
-      <c r="O16" t="e">
-        <f>AVERAGE(I16, K16, M16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P16" t="e">
+      <c r="I16">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>31</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>25</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>28.666666666666668</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" t="e">
-        <f>(O16/H16)*G16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R16" t="e">
-        <f>(P16/H16)*G16</f>
-        <v>#DIV/0!</v>
+        <v>47777.777777777781</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
-      <c r="T16" t="e">
-        <f>Q16/S16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U16" t="e">
-        <f>R16/S16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V16" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W16" t="e">
+      <c r="T16">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.79629629629629639</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="6"/>
+        <v>3.1851851851851856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>42948</v>
       </c>
+      <c r="D17" s="1">
+        <v>42951</v>
+      </c>
       <c r="E17">
         <v>6</v>
       </c>
@@ -1660,52 +1699,66 @@
       <c r="H17">
         <v>300</v>
       </c>
-      <c r="O17" t="e">
-        <f>AVERAGE(I17, K17, M17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P17" t="e">
+      <c r="I17">
+        <v>27</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>35</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>33</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>31.666666666666668</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q17" t="e">
-        <f>(O17/H17)*G17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R17" t="e">
-        <f>(P17/H17)*G17</f>
-        <v>#DIV/0!</v>
+        <v>52777.777777777781</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
-      <c r="T17" t="e">
-        <f>Q17/S17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U17" t="e">
-        <f>R17/S17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V17" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W17" t="e">
+      <c r="T17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.87962962962962965</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="6"/>
+        <v>3.5185185185185186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1">
         <v>42948</v>
       </c>
+      <c r="D18" s="1">
+        <v>42951</v>
+      </c>
       <c r="E18">
         <v>22</v>
       </c>
@@ -1718,52 +1771,66 @@
       <c r="H18">
         <v>300</v>
       </c>
-      <c r="O18" t="e">
-        <f>AVERAGE(I18, K18, M18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18" t="e">
+      <c r="I18">
+        <v>21</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>27</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>24</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q18" t="e">
-        <f>(O18/H18)*G18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R18" t="e">
-        <f>(P18/H18)*G18</f>
-        <v>#DIV/0!</v>
+        <v>40000</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
-      <c r="T18" t="e">
-        <f>Q18/S18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U18" t="e">
-        <f>R18/S18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V18" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W18" t="e">
+      <c r="T18">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="6"/>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1">
         <v>42948</v>
       </c>
+      <c r="D19" s="1">
+        <v>42951</v>
+      </c>
       <c r="E19">
         <v>14</v>
       </c>
@@ -1776,52 +1843,66 @@
       <c r="H19">
         <v>300</v>
       </c>
-      <c r="O19" t="e">
-        <f>AVERAGE(I19, K19, M19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" t="e">
+      <c r="I19">
+        <v>34</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>33</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q19" t="e">
-        <f>(O19/H19)*G19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R19" t="e">
-        <f>(P19/H19)*G19</f>
-        <v>#DIV/0!</v>
+        <v>51666.666666666664</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
-      <c r="T19" t="e">
-        <f>Q19/S19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U19" t="e">
-        <f>R19/S19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V19" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W19" t="e">
+      <c r="T19">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="6"/>
+        <v>3.4444444444444442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1">
         <v>42948</v>
       </c>
+      <c r="D20" s="1">
+        <v>42951</v>
+      </c>
       <c r="E20">
         <v>18</v>
       </c>
@@ -1834,52 +1915,66 @@
       <c r="H20">
         <v>300</v>
       </c>
-      <c r="O20" t="e">
-        <f>AVERAGE(I20, K20, M20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" t="e">
+      <c r="I20">
+        <v>32</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>21</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>38</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f>AVERAGE(I18, K18, M18)</f>
+        <v>24</v>
+      </c>
+      <c r="P20">
+        <f>AVERAGE(J18, L18, N20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20" t="e">
-        <f>(O20/H20)*G20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R20" t="e">
-        <f>(P20/H20)*G20</f>
-        <v>#DIV/0!</v>
+        <v>40000</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
-      <c r="T20" t="e">
-        <f>Q20/S20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U20" t="e">
-        <f>R20/S20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V20" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W20" t="e">
+      <c r="T20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="6"/>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1">
         <v>42948</v>
       </c>
+      <c r="D21" s="1">
+        <v>42951</v>
+      </c>
       <c r="E21">
         <v>24</v>
       </c>
@@ -1892,52 +1987,66 @@
       <c r="H21">
         <v>300</v>
       </c>
-      <c r="O21" t="e">
-        <f>AVERAGE(I21, K21, M21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P21" t="e">
+      <c r="I21">
+        <v>38</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>27</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>22</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f>AVERAGE(I19, K19, M19)</f>
+        <v>31</v>
+      </c>
+      <c r="P21">
+        <f>AVERAGE(J19, L19, N21)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q21" t="e">
-        <f>(O21/H21)*G21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R21" t="e">
-        <f>(P21/H21)*G21</f>
-        <v>#DIV/0!</v>
+        <v>51666.666666666664</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
-      <c r="T21" t="e">
-        <f>Q21/S21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U21" t="e">
-        <f>R21/S21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V21" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W21" t="e">
+      <c r="T21">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="6"/>
+        <v>3.4444444444444442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1">
         <v>42948</v>
       </c>
+      <c r="D22" s="1">
+        <v>42951</v>
+      </c>
       <c r="E22">
         <v>17</v>
       </c>
@@ -1950,52 +2059,66 @@
       <c r="H22">
         <v>300</v>
       </c>
-      <c r="O22" t="e">
-        <f>AVERAGE(I22, K22, M22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P22" t="e">
+      <c r="I22">
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>27</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>36</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f>AVERAGE(I20, K20, M20)</f>
+        <v>30.333333333333332</v>
+      </c>
+      <c r="P22">
+        <f>AVERAGE(J20, L20, N22)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q22" t="e">
-        <f>(O22/H22)*G22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R22" t="e">
-        <f>(P22/H22)*G22</f>
-        <v>#DIV/0!</v>
+        <v>50555.555555555555</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
-      <c r="T22" t="e">
-        <f>Q22/S22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U22" t="e">
-        <f>R22/S22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V22" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W22" t="e">
+      <c r="T22">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.84259259259259256</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="6"/>
+        <v>3.3703703703703702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1">
         <v>42948</v>
       </c>
+      <c r="D23" s="1">
+        <v>42951</v>
+      </c>
       <c r="E23">
         <v>3</v>
       </c>
@@ -2008,52 +2131,66 @@
       <c r="H23">
         <v>300</v>
       </c>
-      <c r="O23" t="e">
-        <f>AVERAGE(I23, K23, M23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P23" t="e">
+      <c r="I23">
+        <v>35</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>28</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>41</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f>AVERAGE(I21, K21, M21)</f>
+        <v>29</v>
+      </c>
+      <c r="P23">
+        <f>AVERAGE(J21, L21, N23)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q23" t="e">
-        <f>(O23/H23)*G23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R23" t="e">
-        <f>(P23/H23)*G23</f>
-        <v>#DIV/0!</v>
+        <v>48333.333333333336</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>555.55555555555554</v>
       </c>
       <c r="S23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
-      <c r="T23" t="e">
-        <f>Q23/S23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U23" t="e">
-        <f>R23/S23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V23" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W23" t="e">
+      <c r="T23">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="6"/>
+        <v>3.2222222222222223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1">
         <v>42948</v>
       </c>
+      <c r="D24" s="1">
+        <v>42951</v>
+      </c>
       <c r="E24">
         <v>2</v>
       </c>
@@ -2066,52 +2203,66 @@
       <c r="H24">
         <v>300</v>
       </c>
-      <c r="O24" t="e">
-        <f>AVERAGE(I24, K24, M24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" t="e">
+      <c r="I24">
+        <v>23</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>23</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>19</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f>AVERAGE(I22, K22, M22)</f>
+        <v>31</v>
+      </c>
+      <c r="P24">
+        <f>AVERAGE(J22, L22, N24)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24" t="e">
-        <f>(O24/H24)*G24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" t="e">
-        <f>(P24/H24)*G24</f>
-        <v>#DIV/0!</v>
+        <v>51666.666666666664</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
-      <c r="T24" t="e">
-        <f>Q24/S24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" t="e">
-        <f>R24/S24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V24" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W24" t="e">
+      <c r="T24">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="6"/>
+        <v>3.4444444444444442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <v>42948</v>
       </c>
+      <c r="D25" s="1">
+        <v>42951</v>
+      </c>
       <c r="E25">
         <v>9</v>
       </c>
@@ -2124,48 +2275,59 @@
       <c r="H25">
         <v>300</v>
       </c>
-      <c r="O25" t="e">
-        <f>AVERAGE(I25, K25, M25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" t="e">
+      <c r="I25">
+        <v>49</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>44</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>42</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" t="e">
-        <f>(O25/H25)*G25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" t="e">
-        <f>(P25/H25)*G25</f>
-        <v>#DIV/0!</v>
+        <v>75000</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60000</v>
       </c>
-      <c r="T25" t="e">
-        <f>Q25/S25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" t="e">
-        <f>R25/S25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="3">
-        <v>60000</v>
-      </c>
-      <c r="W25" t="e">
+      <c r="T25">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+        <v>1.25</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
         <v>42950</v>
@@ -2204,32 +2366,43 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" ref="O26:P73" si="3">AVERAGE(I26, K26, M26)</f>
+        <f t="shared" ref="O26:P77" si="7">AVERAGE(I26, K26, M26)</f>
         <v>20.333333333333332</v>
       </c>
       <c r="P26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" ref="Q26:Q73" si="4">(O26/H26)*G26</f>
+        <f t="shared" ref="Q26:Q73" si="8">(O26/H26)*G26</f>
         <v>44733.333333333328</v>
       </c>
       <c r="R26">
-        <f t="shared" ref="R26:R73" si="5">(P26/H26)*G26</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="3"/>
-      <c r="Y26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+        <f t="shared" ref="R26:R73" si="9">(P26/H26)*G26</f>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="T26">
+        <f>SUM(Q26,Q27)/S26</f>
+        <v>0.74555555555555553</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="6"/>
+        <v>2.9822222222222221</v>
+      </c>
+      <c r="V26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1">
         <v>42950</v>
@@ -2268,29 +2441,32 @@
         <v>5</v>
       </c>
       <c r="O27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3200</v>
       </c>
-      <c r="V27" s="3"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="U27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1">
         <v>42950</v>
@@ -2329,29 +2505,40 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="P28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>33000</v>
       </c>
       <c r="R28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="3"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T28">
+        <f>SUM(Q28,Q29)/S28</f>
+        <v>0.62</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="6"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1">
         <v>42950</v>
@@ -2390,29 +2577,32 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="P29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4200</v>
       </c>
       <c r="R29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="3"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="6"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1">
         <v>42950</v>
@@ -2451,29 +2641,40 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12.666666666666666</v>
       </c>
       <c r="P30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>27866.666666666664</v>
       </c>
       <c r="R30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="3"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T30">
+        <f>SUM(Q30,Q31)/S30</f>
+        <v>0.4844444444444444</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="6"/>
+        <v>1.8577777777777775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1">
         <v>42950</v>
@@ -2512,29 +2713,32 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1200</v>
       </c>
       <c r="R31">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="3"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="6"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1">
         <v>42950</v>
@@ -2561,44 +2765,55 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L32" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M32" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N32" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="O32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="P32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>72800</v>
       </c>
       <c r="R32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="3"/>
-      <c r="Y32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T32">
+        <f>SUM(Q32,Q33)/S32</f>
+        <v>1.2444444444444445</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="6"/>
+        <v>4.8533333333333335</v>
+      </c>
+      <c r="V32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1">
         <v>42950</v>
@@ -2637,29 +2852,32 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="P33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1866.6666666666665</v>
       </c>
       <c r="R33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>933.33333333333326</v>
       </c>
-      <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="U33">
+        <f t="shared" si="6"/>
+        <v>0.12444444444444444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1">
         <v>42950</v>
@@ -2698,29 +2916,40 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>26.666666666666668</v>
       </c>
       <c r="P34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>37333.333333333336</v>
       </c>
       <c r="R34">
+        <f t="shared" si="9"/>
+        <v>466.66666666666663</v>
+      </c>
+      <c r="S34">
         <f t="shared" si="5"/>
-        <v>466.66666666666663</v>
-      </c>
-      <c r="V34" s="3"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T34">
+        <f>SUM(Q34,Q35)/S34</f>
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="6"/>
+        <v>2.4888888888888889</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1">
         <v>42950</v>
@@ -2759,29 +2988,32 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>800</v>
       </c>
-      <c r="V35" s="3"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="U35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1">
         <v>42950</v>
@@ -2808,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L36" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M36">
         <v>25</v>
@@ -2820,32 +3052,43 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="P36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>58500</v>
       </c>
       <c r="R36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="3"/>
-      <c r="Y36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T36">
+        <f>SUM(Q36,Q37)/S36</f>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="6"/>
+        <v>3.9</v>
+      </c>
+      <c r="V36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1">
         <v>42950</v>
@@ -2872,10 +3115,10 @@
         <v>2</v>
       </c>
       <c r="K37" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L37" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -2884,32 +3127,35 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1160</v>
       </c>
-      <c r="V37" s="3"/>
-      <c r="Y37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="U37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1">
         <v>42950</v>
@@ -2948,29 +3194,40 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>31.666666666666668</v>
       </c>
       <c r="P38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>44333.333333333336</v>
       </c>
       <c r="R38">
+        <f t="shared" si="9"/>
+        <v>1400</v>
+      </c>
+      <c r="S38">
         <f t="shared" si="5"/>
-        <v>1400</v>
-      </c>
-      <c r="V38" s="3"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T38">
+        <f>SUM(Q38,Q39)/S38</f>
+        <v>0.73888888888888893</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="6"/>
+        <v>2.9555555555555557</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1">
         <v>42950</v>
@@ -3009,29 +3266,32 @@
         <v>1</v>
       </c>
       <c r="O39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1160</v>
       </c>
-      <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="U39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C40" s="1">
         <v>42950</v>
@@ -3070,29 +3330,40 @@
         <v>2</v>
       </c>
       <c r="O40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.333333333333332</v>
       </c>
       <c r="P40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>41066.666666666664</v>
       </c>
       <c r="R40">
+        <f t="shared" si="9"/>
+        <v>933.33333333333326</v>
+      </c>
+      <c r="S40">
         <f t="shared" si="5"/>
-        <v>933.33333333333326</v>
-      </c>
-      <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T40">
+        <f>SUM(Q40,Q41)/S40</f>
+        <v>0.74311111111111106</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="6"/>
+        <v>2.7377777777777776</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C41" s="1">
         <v>42950</v>
@@ -3131,29 +3402,32 @@
         <v>2</v>
       </c>
       <c r="O41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="P41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3520</v>
       </c>
       <c r="R41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>960</v>
       </c>
-      <c r="V41" s="3"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="U41">
+        <f t="shared" si="6"/>
+        <v>0.23466666666666666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C42" s="1">
         <v>42950</v>
@@ -3189,29 +3463,40 @@
         <v>10</v>
       </c>
       <c r="O42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="P42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>18200</v>
       </c>
       <c r="R42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S42">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="3"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T42">
+        <f>SUM(Q42,Q43)/S42</f>
+        <v>0.30333333333333334</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="6"/>
+        <v>1.2133333333333334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C43" s="1">
         <v>42950</v>
@@ -3226,69 +3511,57 @@
         <v>48</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="O43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="R43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="T43" t="s">
-        <v>30</v>
-      </c>
-      <c r="U43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="V43" t="s">
-        <v>30</v>
-      </c>
-      <c r="W43" t="s">
-        <v>30</v>
-      </c>
-      <c r="X43" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C44" s="1">
         <v>42950</v>
@@ -3327,29 +3600,40 @@
         <v>3</v>
       </c>
       <c r="O44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="P44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>30800</v>
       </c>
       <c r="R44">
+        <f t="shared" si="9"/>
+        <v>1866.6666666666665</v>
+      </c>
+      <c r="S44">
         <f t="shared" si="5"/>
-        <v>1866.6666666666665</v>
-      </c>
-      <c r="V44" s="3"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T44">
+        <f>SUM(Q44,Q45)/S44</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="6"/>
+        <v>2.0533333333333332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C45" s="1">
         <v>42950</v>
@@ -3388,29 +3672,28 @@
         <v>1</v>
       </c>
       <c r="O45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1200</v>
       </c>
       <c r="R45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
-      <c r="V45" s="3"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C46" s="1">
         <v>42950</v>
@@ -3449,29 +3732,40 @@
         <v>1</v>
       </c>
       <c r="O46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.666666666666668</v>
       </c>
       <c r="P46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>34533.333333333336</v>
       </c>
       <c r="R46">
+        <f t="shared" si="9"/>
+        <v>1400</v>
+      </c>
+      <c r="S46">
         <f t="shared" si="5"/>
-        <v>1400</v>
-      </c>
-      <c r="V46" s="3"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T46">
+        <f>SUM(Q46,Q47)/S46</f>
+        <v>0.58933333333333338</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="6"/>
+        <v>2.3022222222222224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C47" s="1">
         <v>42950</v>
@@ -3510,29 +3804,28 @@
         <v>1</v>
       </c>
       <c r="O47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="P47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>826.66666666666663</v>
       </c>
       <c r="R47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1240</v>
       </c>
-      <c r="V47" s="3"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C48" s="1">
         <v>42950</v>
@@ -3571,29 +3864,40 @@
         <v>1</v>
       </c>
       <c r="O48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>28.666666666666668</v>
       </c>
       <c r="P48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>34400</v>
       </c>
       <c r="R48">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="S48">
         <f t="shared" si="5"/>
-        <v>1200</v>
-      </c>
-      <c r="V48" s="3"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T48">
+        <f>SUM(Q48,Q49)/S48</f>
+        <v>0.59555555555555562</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="6"/>
+        <v>2.2933333333333334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C49" s="1">
         <v>42950</v>
@@ -3632,29 +3936,28 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="P49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1333.3333333333335</v>
       </c>
       <c r="R49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>266.66666666666669</v>
       </c>
-      <c r="V49" s="3"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C50" s="1">
         <v>42950</v>
@@ -3693,29 +3996,40 @@
         <v>1</v>
       </c>
       <c r="O50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="P50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>37200</v>
       </c>
       <c r="R50">
+        <f t="shared" si="9"/>
+        <v>1240</v>
+      </c>
+      <c r="S50">
         <f t="shared" si="5"/>
-        <v>1240</v>
-      </c>
-      <c r="V50" s="3"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T50">
+        <f>SUM(Q50,Q51)/S50</f>
+        <v>0.66</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="6"/>
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C51" s="1">
         <v>42950</v>
@@ -3754,29 +4068,28 @@
         <v>1</v>
       </c>
       <c r="O51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="P51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2400</v>
       </c>
       <c r="R51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>266.66666666666669</v>
       </c>
-      <c r="V51" s="3"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C52" s="1">
         <v>42950</v>
@@ -3815,29 +4128,40 @@
         <v>1</v>
       </c>
       <c r="O52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="P52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>37200</v>
       </c>
       <c r="R52">
+        <f t="shared" si="9"/>
+        <v>1600</v>
+      </c>
+      <c r="S52">
         <f t="shared" si="5"/>
-        <v>1600</v>
-      </c>
-      <c r="V52" s="3"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T52">
+        <f>SUM(Q52,Q53)/S52</f>
+        <v>0.63777777777777778</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="6"/>
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C53" s="1">
         <v>42950</v>
@@ -3876,29 +4200,28 @@
         <v>1</v>
       </c>
       <c r="O53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="P53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1066.6666666666667</v>
       </c>
       <c r="R53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>266.66666666666669</v>
       </c>
-      <c r="V53" s="3"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C54" s="1">
         <v>42950</v>
@@ -3937,29 +4260,40 @@
         <v>1</v>
       </c>
       <c r="O54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="P54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>22800</v>
       </c>
       <c r="R54">
+        <f t="shared" si="9"/>
+        <v>800</v>
+      </c>
+      <c r="S54">
         <f t="shared" si="5"/>
-        <v>800</v>
-      </c>
-      <c r="V54" s="3"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T54">
+        <f>SUM(Q54,Q55)/S54</f>
+        <v>0.39333333333333331</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="6"/>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C55" s="1">
         <v>42950</v>
@@ -3998,29 +4332,28 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>800</v>
       </c>
       <c r="R55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>266.66666666666669</v>
       </c>
-      <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C56" s="1">
         <v>42950</v>
@@ -4047,10 +4380,10 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L56" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M56">
         <v>29</v>
@@ -4059,29 +4392,40 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="P56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>70000</v>
       </c>
       <c r="R56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S56">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T56">
+        <f>SUM(Q56,Q57)/S56</f>
+        <v>1.1773333333333333</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="6"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C57" s="1">
         <v>42950</v>
@@ -4120,29 +4464,28 @@
         <v>1</v>
       </c>
       <c r="O57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="P57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>640</v>
       </c>
       <c r="R57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1280</v>
       </c>
-      <c r="V57" s="3"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C58" s="1">
         <v>42950</v>
@@ -4181,29 +4524,40 @@
         <v>0</v>
       </c>
       <c r="O58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="P58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>35960</v>
       </c>
       <c r="R58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S58">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V58" s="3"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T58">
+        <f>SUM(Q58,Q59)/S58</f>
+        <v>0.59933333333333338</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="6"/>
+        <v>2.3973333333333335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C59" s="1">
         <v>42950</v>
@@ -4242,29 +4596,28 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V59" s="3"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C60" s="1">
         <v>42950</v>
@@ -4303,29 +4656,40 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>28.666666666666668</v>
       </c>
       <c r="P60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>40133.333333333336</v>
       </c>
       <c r="R60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S60">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V60" s="3"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T60">
+        <f>SUM(Q60,Q61)/S60</f>
+        <v>0.74888888888888894</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="6"/>
+        <v>2.6755555555555559</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C61" s="1">
         <v>42950</v>
@@ -4364,29 +4728,28 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4800</v>
       </c>
       <c r="R61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
-      <c r="V61" s="3"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C62" s="1">
         <v>42950</v>
@@ -4425,29 +4788,40 @@
         <v>1</v>
       </c>
       <c r="O62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>34.666666666666664</v>
       </c>
       <c r="P62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>41600</v>
       </c>
       <c r="R62">
+        <f t="shared" si="9"/>
+        <v>800</v>
+      </c>
+      <c r="S62">
         <f t="shared" si="5"/>
-        <v>800</v>
-      </c>
-      <c r="V62" s="3"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T62">
+        <f>SUM(Q62,Q63)/S62</f>
+        <v>0.70333333333333337</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="6"/>
+        <v>2.7733333333333334</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C63" s="1">
         <v>42950</v>
@@ -4486,29 +4860,28 @@
         <v>1</v>
       </c>
       <c r="O63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="P63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>600</v>
       </c>
       <c r="R63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
-      <c r="V63" s="3"/>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C64" s="1">
         <v>42950</v>
@@ -4547,29 +4920,40 @@
         <v>1</v>
       </c>
       <c r="O64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>31.333333333333332</v>
       </c>
       <c r="P64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>37600</v>
       </c>
       <c r="R64">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="S64">
         <f t="shared" si="5"/>
-        <v>1200</v>
-      </c>
-      <c r="V64" s="3"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T64">
+        <f>SUM(Q64,Q65)/S64</f>
+        <v>0.65333333333333332</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="6"/>
+        <v>2.5066666666666668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C65" s="1">
         <v>42950</v>
@@ -4608,29 +4992,28 @@
         <v>2</v>
       </c>
       <c r="O65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="P65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1600</v>
       </c>
       <c r="R65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>800</v>
       </c>
-      <c r="V65" s="3"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C66" s="1">
         <v>42950</v>
@@ -4669,29 +5052,40 @@
         <v>0</v>
       </c>
       <c r="O66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="P66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>31200</v>
       </c>
       <c r="R66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S66">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V66" s="3"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T66">
+        <f>SUM(Q66,Q67)/S66</f>
+        <v>0.5477777777777777</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="6"/>
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C67" s="1">
         <v>42950</v>
@@ -4730,29 +5124,28 @@
         <v>1</v>
       </c>
       <c r="O67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="P67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1666.6666666666667</v>
       </c>
       <c r="R67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>333.33333333333331</v>
       </c>
-      <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C68" s="1">
         <v>42950</v>
@@ -4791,29 +5184,40 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="P68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>39600</v>
       </c>
       <c r="R68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S68">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V68" s="3"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T68">
+        <f>SUM(Q68,Q69)/S68</f>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="U68">
+        <f t="shared" ref="U68:U72" si="10">Q68/15000</f>
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C69" s="1">
         <v>42950</v>
@@ -4852,29 +5256,28 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="R69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
-      <c r="V69" s="3"/>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C70" s="1">
         <v>42950</v>
@@ -4913,29 +5316,40 @@
         <v>0</v>
       </c>
       <c r="O70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>28.333333333333332</v>
       </c>
       <c r="P70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>34000</v>
       </c>
       <c r="R70">
+        <f t="shared" si="9"/>
+        <v>400</v>
+      </c>
+      <c r="S70">
         <f t="shared" si="5"/>
-        <v>400</v>
-      </c>
-      <c r="V70" s="3"/>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T70">
+        <f>SUM(Q70,Q71)/S70</f>
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="10"/>
+        <v>2.2666666666666666</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C71" s="1">
         <v>42950</v>
@@ -4974,29 +5388,28 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="P71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1333.3333333333335</v>
       </c>
       <c r="R71">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V71" s="3"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C72" s="1">
         <v>42950</v>
@@ -5035,29 +5448,40 @@
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.666666666666668</v>
       </c>
       <c r="P72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>32066.666666666668</v>
       </c>
       <c r="R72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S72">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V72" s="3"/>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="T72">
+        <f>SUM(Q72,Q73)/S72</f>
+        <v>0.55666666666666664</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="10"/>
+        <v>2.137777777777778</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C73" s="1">
         <v>42950</v>
@@ -5096,22 +5520,1602 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="P73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="4"/>
+        <f>(O73/H73)*G74</f>
+        <v>1333.3333333333333</v>
+      </c>
+      <c r="R73">
+        <f>(P73/H73)*G74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C74" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D74" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E74">
+        <v>16</v>
+      </c>
+      <c r="F74">
+        <v>60</v>
+      </c>
+      <c r="G74">
+        <v>500000</v>
+      </c>
+      <c r="H74">
+        <v>250</v>
+      </c>
+      <c r="I74">
+        <v>20</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>6</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>14</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="7"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" ref="Q74:Q97" si="11">(O74/H74)*G75</f>
+        <v>29333.333333333336</v>
+      </c>
+      <c r="R74">
+        <f t="shared" ref="R74:R97" si="12">(P74/H74)*G75</f>
+        <v>1466.6666666666665</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="T74">
+        <f>SUM(Q74,Q75)/S74</f>
+        <v>1.118888888888889</v>
+      </c>
+      <c r="U74">
+        <f t="shared" ref="U74" si="13">Q74/15000</f>
+        <v>1.9555555555555557</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C75" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D75" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E75">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>60</v>
+      </c>
+      <c r="G75">
+        <v>550000</v>
+      </c>
+      <c r="H75">
+        <v>250</v>
+      </c>
+      <c r="I75">
+        <v>15</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>22</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>26</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="11"/>
+        <v>37800</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="T75">
+        <f t="shared" ref="T75:T97" si="14">SUM(Q75,Q76)/S75</f>
+        <v>1.07</v>
+      </c>
+      <c r="U75">
+        <f t="shared" ref="U75:U97" si="15">Q75/15000</f>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C76" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D76" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E76">
+        <v>23</v>
+      </c>
+      <c r="F76">
+        <v>60</v>
+      </c>
+      <c r="G76">
+        <v>450000</v>
+      </c>
+      <c r="H76">
+        <v>250</v>
+      </c>
+      <c r="I76">
+        <v>11</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>17</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>27</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="7"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="11"/>
+        <v>26400</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="12"/>
+        <v>480</v>
+      </c>
+      <c r="S76">
+        <f t="shared" ref="S76:S97" si="16">15000*4</f>
+        <v>60000</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="14"/>
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="15"/>
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C77" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D77" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E77">
+        <v>17</v>
+      </c>
+      <c r="F77">
+        <v>60</v>
+      </c>
+      <c r="G77">
+        <v>360000</v>
+      </c>
+      <c r="H77">
+        <v>250</v>
+      </c>
+      <c r="I77">
+        <v>20</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+      <c r="K77">
+        <v>26</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>32</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="P77">
+        <f t="shared" ref="P77:P97" si="17">AVERAGE(J77, L77, N77)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="11"/>
+        <v>37440</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="12"/>
+        <v>2400</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="14"/>
+        <v>1.322888888888889</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="15"/>
+        <v>2.496</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C78" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D78" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="F78">
+        <v>60</v>
+      </c>
+      <c r="G78">
+        <v>360000</v>
+      </c>
+      <c r="H78">
+        <v>250</v>
+      </c>
+      <c r="I78">
+        <v>31</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>29</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>14</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <f t="shared" ref="O78:O97" si="18">AVERAGE(I78, K78, M78)</f>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="17"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="11"/>
+        <v>41933.333333333336</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="12"/>
+        <v>566.66666666666663</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="14"/>
+        <v>1.2677777777777779</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="15"/>
+        <v>2.7955555555555556</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C79" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D79" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E79">
+        <v>24</v>
+      </c>
+      <c r="F79">
+        <v>60</v>
+      </c>
+      <c r="G79">
+        <v>425000</v>
+      </c>
+      <c r="H79">
+        <v>250</v>
+      </c>
+      <c r="I79">
+        <v>23</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>23</v>
+      </c>
+      <c r="M79">
+        <v>18</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="18"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="11"/>
+        <v>34133.333333333336</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="12"/>
+        <v>800</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="14"/>
+        <v>1.5355555555555558</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="15"/>
+        <v>2.2755555555555556</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C80" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D80" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>60</v>
+      </c>
+      <c r="G80">
+        <v>400000</v>
+      </c>
+      <c r="H80">
+        <v>250</v>
+      </c>
+      <c r="I80">
+        <v>20</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>38</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>29</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="17"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="11"/>
+        <v>58000</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="12"/>
         <v>666.66666666666663</v>
       </c>
-      <c r="R73">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V73" s="3"/>
+      <c r="S80">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="14"/>
+        <v>1.3666666666666667</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="15"/>
+        <v>3.8666666666666667</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C81" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D81" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E81">
+        <v>15</v>
+      </c>
+      <c r="F81">
+        <v>60</v>
+      </c>
+      <c r="G81">
+        <v>500000</v>
+      </c>
+      <c r="H81">
+        <v>250</v>
+      </c>
+      <c r="I81">
+        <v>15</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>25</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="18"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="11"/>
+        <v>24000</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="12"/>
+        <v>1800</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="14"/>
+        <v>0.85933333333333328</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="15"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C82" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D82" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E82">
+        <v>20</v>
+      </c>
+      <c r="F82">
+        <v>60</v>
+      </c>
+      <c r="G82">
+        <v>450000</v>
+      </c>
+      <c r="H82">
+        <v>250</v>
+      </c>
+      <c r="I82">
+        <v>9</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>30</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>14</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="18"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="11"/>
+        <v>27560</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="12"/>
+        <v>1560</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="14"/>
+        <v>1.1593333333333333</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="15"/>
+        <v>1.8373333333333333</v>
+      </c>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C83" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D83" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>60</v>
+      </c>
+      <c r="G83">
+        <v>390000</v>
+      </c>
+      <c r="H83">
+        <v>250</v>
+      </c>
+      <c r="I83">
+        <v>32</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>24</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>28</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="18"/>
+        <v>28</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="17"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="11"/>
+        <v>42000</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="14"/>
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="15"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C84" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D84" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <v>60</v>
+      </c>
+      <c r="G84">
+        <v>375000</v>
+      </c>
+      <c r="H84">
+        <v>250</v>
+      </c>
+      <c r="I84">
+        <v>38</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
+      </c>
+      <c r="K84">
+        <v>9</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>25</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="11"/>
+        <v>42240</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="12"/>
+        <v>1760</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="14"/>
+        <v>1.0623333333333334</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="15"/>
+        <v>2.8159999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C85" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D85" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E85">
+        <v>21</v>
+      </c>
+      <c r="F85">
+        <v>60</v>
+      </c>
+      <c r="G85">
+        <v>440000</v>
+      </c>
+      <c r="H85">
+        <v>250</v>
+      </c>
+      <c r="I85">
+        <v>9</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>16</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>18</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="18"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="11"/>
+        <v>21500</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="14"/>
+        <v>0.82055555555555548</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="15"/>
+        <v>1.4333333333333333</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C86" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D86" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E86">
+        <v>8</v>
+      </c>
+      <c r="F86">
+        <v>60</v>
+      </c>
+      <c r="G86">
+        <v>375000</v>
+      </c>
+      <c r="H86">
+        <v>250</v>
+      </c>
+      <c r="I86">
+        <v>29</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>34</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="18"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="11"/>
+        <v>27733.333333333332</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="14"/>
+        <v>1.1327777777777779</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="15"/>
+        <v>1.8488888888888888</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C87" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D87" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E87">
+        <v>7</v>
+      </c>
+      <c r="F87">
+        <v>60</v>
+      </c>
+      <c r="G87">
+        <v>325000</v>
+      </c>
+      <c r="H87">
+        <v>250</v>
+      </c>
+      <c r="I87">
+        <v>21</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>27</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>23</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="18"/>
+        <v>23.666666666666668</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="17"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="11"/>
+        <v>40233.333333333336</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="12"/>
+        <v>566.66666666666663</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="14"/>
+        <v>1.2455555555555557</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="15"/>
+        <v>2.6822222222222223</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C88" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D88" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E88">
+        <v>14</v>
+      </c>
+      <c r="F88">
+        <v>60</v>
+      </c>
+      <c r="G88">
+        <v>425000</v>
+      </c>
+      <c r="H88">
+        <v>250</v>
+      </c>
+      <c r="I88">
+        <v>25</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>28</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>16</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="17"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="11"/>
+        <v>34500</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="14"/>
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="15"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C89" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D89" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E89">
+        <v>22</v>
+      </c>
+      <c r="F89">
+        <v>60</v>
+      </c>
+      <c r="G89">
+        <v>375000</v>
+      </c>
+      <c r="H89">
+        <v>250</v>
+      </c>
+      <c r="I89">
+        <v>23</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>32</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>17</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="17"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="11"/>
+        <v>38400</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="12"/>
+        <v>1066.6666666666667</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="14"/>
+        <v>1.44</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="15"/>
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C90" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D90" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E90">
+        <v>9</v>
+      </c>
+      <c r="F90">
+        <v>60</v>
+      </c>
+      <c r="G90">
+        <v>400000</v>
+      </c>
+      <c r="H90">
+        <v>250</v>
+      </c>
+      <c r="I90">
+        <v>27</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90">
+        <v>30</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>33</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="11"/>
+        <v>48000</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="12"/>
+        <v>1600</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="14"/>
+        <v>1.2622222222222221</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="15"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C91" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D91" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E91">
+        <v>18</v>
+      </c>
+      <c r="F91">
+        <v>60</v>
+      </c>
+      <c r="G91">
+        <v>400000</v>
+      </c>
+      <c r="H91">
+        <v>250</v>
+      </c>
+      <c r="I91">
+        <v>19</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>17</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>16</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="18"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="17"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="11"/>
+        <v>27733.333333333332</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="12"/>
+        <v>533.33333333333337</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="14"/>
+        <v>1.1377777777777778</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="15"/>
+        <v>1.8488888888888888</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C92" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D92" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E92">
+        <v>13</v>
+      </c>
+      <c r="F92">
+        <v>60</v>
+      </c>
+      <c r="G92">
+        <v>400000</v>
+      </c>
+      <c r="H92">
+        <v>250</v>
+      </c>
+      <c r="I92">
+        <v>23</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>20</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>33</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="18"/>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="17"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="11"/>
+        <v>40533.333333333336</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="12"/>
+        <v>1066.6666666666667</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="14"/>
+        <v>1.368888888888889</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="15"/>
+        <v>2.7022222222222223</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C93" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D93" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>60</v>
+      </c>
+      <c r="G93">
+        <v>400000</v>
+      </c>
+      <c r="H93">
+        <v>250</v>
+      </c>
+      <c r="I93">
+        <v>17</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>27</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>34</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="18"/>
+        <v>26</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="17"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="11"/>
+        <v>41600</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="12"/>
+        <v>533.33333333333337</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="14"/>
+        <v>1.335</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="15"/>
+        <v>2.7733333333333334</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C94" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D94" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E94">
+        <v>12</v>
+      </c>
+      <c r="F94">
+        <v>60</v>
+      </c>
+      <c r="G94">
+        <v>400000</v>
+      </c>
+      <c r="H94">
+        <v>250</v>
+      </c>
+      <c r="I94">
+        <v>17</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>22</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>38</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="18"/>
+        <v>25.666666666666668</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="17"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="11"/>
+        <v>38500</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="14"/>
+        <v>2.125</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="15"/>
+        <v>2.5666666666666669</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C95" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D95" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>60</v>
+      </c>
+      <c r="G95">
+        <v>375000</v>
+      </c>
+      <c r="H95">
+        <v>250</v>
+      </c>
+      <c r="I95">
+        <v>59</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95" t="s">
+        <v>23</v>
+      </c>
+      <c r="L95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M95">
+        <v>30</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="18"/>
+        <v>44.5</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="11"/>
+        <v>89000</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="12"/>
+        <v>4000</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="14"/>
+        <v>1.9722222222222221</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="15"/>
+        <v>5.9333333333333336</v>
+      </c>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C96" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D96" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E96">
+        <v>19</v>
+      </c>
+      <c r="F96">
+        <v>60</v>
+      </c>
+      <c r="G96">
+        <v>500000</v>
+      </c>
+      <c r="H96">
+        <v>250</v>
+      </c>
+      <c r="I96">
+        <v>19</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96">
+        <v>14</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>22</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="18"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="17"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="11"/>
+        <v>29333.333333333332</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="12"/>
+        <v>2666.666666666667</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="14"/>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="15"/>
+        <v>1.9555555555555555</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C97" s="1">
+        <v>42952</v>
+      </c>
+      <c r="D97" s="1">
+        <v>42952</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>60</v>
+      </c>
+      <c r="G97">
+        <v>400000</v>
+      </c>
+      <c r="H97">
+        <v>250</v>
+      </c>
+      <c r="I97">
+        <v>18</v>
+      </c>
+      <c r="J97">
+        <v>4</v>
+      </c>
+      <c r="K97">
+        <v>21</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>26</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="18"/>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="17"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="Q97">
+        <f>(O97/H97)*G97</f>
+        <v>34666.666666666664</v>
+      </c>
+      <c r="R97">
+        <f>(P97/H97)*G97</f>
+        <v>3733.3333333333335</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="16"/>
+        <v>60000</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="14"/>
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="15"/>
+        <v>2.3111111111111109</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/2017-07-30-pacific-oyster-larvae/2017-08-02-Larvae-Counts.xlsx
+++ b/data/2017-07-30-pacific-oyster-larvae/2017-08-02-Larvae-Counts.xlsx
@@ -144,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,6 +176,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,25 +201,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,12 +504,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V145"/>
+  <dimension ref="A1:V171"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G84" sqref="G84"/>
+      <selection pane="bottomLeft" activeCell="K132" sqref="K132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <f>15000*4</f>
+        <f t="shared" ref="S2:S26" si="0">15000*4</f>
         <v>60000</v>
       </c>
       <c r="T2">
@@ -642,7 +658,7 @@
         <v>0.92592592592592604</v>
       </c>
       <c r="U2">
-        <f>Q2/15000</f>
+        <f t="shared" ref="U2:U30" si="1">Q2/15000</f>
         <v>3.7037037037037042</v>
       </c>
       <c r="V2" t="s">
@@ -693,31 +709,31 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O66" si="0">AVERAGE(I3,K3,M3)</f>
+        <f t="shared" ref="O3:O66" si="2">AVERAGE(I3,K3,M3)</f>
         <v>21.666666666666668</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="1">AVERAGE(J3,L3,N3)</f>
+        <f t="shared" ref="P3:P66" si="3">AVERAGE(J3,L3,N3)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q66" si="2">(O3/H3)*G3</f>
+        <f t="shared" ref="Q3:Q66" si="4">(O3/H3)*G3</f>
         <v>36111.111111111117</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R66" si="3">(P3/H3)*G3</f>
+        <f t="shared" ref="R3:R66" si="5">(P3/H3)*G3</f>
         <v>555.55555555555554</v>
       </c>
       <c r="S3">
-        <f>15000*4</f>
+        <f t="shared" si="0"/>
         <v>60000</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T66" si="4">Q3/S3</f>
+        <f t="shared" ref="T3:T28" si="6">Q3/S3</f>
         <v>0.60185185185185197</v>
       </c>
       <c r="U3">
-        <f>Q3/15000</f>
+        <f t="shared" si="1"/>
         <v>2.4074074074074079</v>
       </c>
     </row>
@@ -765,31 +781,31 @@
         <v>0</v>
       </c>
       <c r="O4">
+        <f t="shared" si="2"/>
+        <v>34.666666666666664</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="4"/>
+        <v>57777.777777777774</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="0"/>
-        <v>34.666666666666664</v>
-      </c>
-      <c r="P4">
+        <v>60000</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="6"/>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="U4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="2"/>
-        <v>57777.777777777774</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="4"/>
-        <v>0.96296296296296291</v>
-      </c>
-      <c r="U4">
-        <f>Q4/15000</f>
         <v>3.8518518518518516</v>
       </c>
     </row>
@@ -837,31 +853,31 @@
         <v>13</v>
       </c>
       <c r="O5">
+        <f t="shared" si="2"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>44444.444444444445</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="5"/>
+        <v>13333.333333333334</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="0"/>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="P5">
+        <v>60000</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="6"/>
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="2"/>
-        <v>44444.444444444445</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="3"/>
-        <v>13333.333333333334</v>
-      </c>
-      <c r="S5">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="4"/>
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="U5">
-        <f>Q5/15000</f>
         <v>2.9629629629629628</v>
       </c>
       <c r="V5" t="s">
@@ -912,31 +928,31 @@
         <v>1</v>
       </c>
       <c r="O6">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>53333.333333333336</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>555.55555555555554</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="P6">
+        <v>60000</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="6"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="2"/>
-        <v>53333.333333333336</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="3"/>
-        <v>555.55555555555554</v>
-      </c>
-      <c r="S6">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="4"/>
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="U6">
-        <f>Q6/15000</f>
         <v>3.5555555555555558</v>
       </c>
       <c r="V6" t="s">
@@ -987,31 +1003,31 @@
         <v>0</v>
       </c>
       <c r="O7">
+        <f t="shared" si="2"/>
+        <v>31.666666666666668</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>52777.777777777781</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="0"/>
-        <v>31.666666666666668</v>
-      </c>
-      <c r="P7">
+        <v>60000</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="6"/>
+        <v>0.87962962962962965</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="2"/>
-        <v>52777.777777777781</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="4"/>
-        <v>0.87962962962962965</v>
-      </c>
-      <c r="U7">
-        <f>Q7/15000</f>
         <v>3.5185185185185186</v>
       </c>
     </row>
@@ -1059,31 +1075,31 @@
         <v>10</v>
       </c>
       <c r="O8">
+        <f t="shared" si="2"/>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>42222.222222222226</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>12777.777777777779</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="0"/>
-        <v>25.333333333333332</v>
-      </c>
-      <c r="P8">
+        <v>60000</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="6"/>
+        <v>0.70370370370370372</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="1"/>
-        <v>7.666666666666667</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="2"/>
-        <v>42222.222222222226</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="3"/>
-        <v>12777.777777777779</v>
-      </c>
-      <c r="S8">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="4"/>
-        <v>0.70370370370370372</v>
-      </c>
-      <c r="U8">
-        <f>Q8/15000</f>
         <v>2.8148148148148149</v>
       </c>
       <c r="V8" t="s">
@@ -1134,31 +1150,31 @@
         <v>5</v>
       </c>
       <c r="O9">
+        <f t="shared" si="2"/>
+        <v>30.666666666666668</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>61333.333333333336</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>7333.333333333333</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="0"/>
-        <v>30.666666666666668</v>
-      </c>
-      <c r="P9">
+        <v>60000</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="6"/>
+        <v>1.0222222222222224</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="2"/>
-        <v>61333.333333333336</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="3"/>
-        <v>7333.333333333333</v>
-      </c>
-      <c r="S9">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="4"/>
-        <v>1.0222222222222224</v>
-      </c>
-      <c r="U9">
-        <f>Q9/15000</f>
         <v>4.0888888888888895</v>
       </c>
       <c r="V9" t="s">
@@ -1209,31 +1225,31 @@
         <v>0</v>
       </c>
       <c r="O10">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>75000</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="P10">
+        <v>60000</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="2"/>
-        <v>75000</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="4"/>
-        <v>1.25</v>
-      </c>
-      <c r="U10">
-        <f>Q10/15000</f>
         <v>5</v>
       </c>
     </row>
@@ -1281,31 +1297,31 @@
         <v>0</v>
       </c>
       <c r="O11">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>53333.333333333336</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="P11">
+        <v>60000</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="6"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>53333.333333333336</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="4"/>
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="U11">
-        <f>Q11/15000</f>
         <v>3.5555555555555558</v>
       </c>
     </row>
@@ -1353,31 +1369,31 @@
         <v>0</v>
       </c>
       <c r="O12">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>27777.777777777781</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="P12">
+        <v>60000</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="6"/>
+        <v>0.46296296296296302</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="2"/>
-        <v>27777.777777777781</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="4"/>
-        <v>0.46296296296296302</v>
-      </c>
-      <c r="U12">
-        <f>Q12/15000</f>
         <v>1.8518518518518521</v>
       </c>
     </row>
@@ -1425,31 +1441,31 @@
         <v>0</v>
       </c>
       <c r="O13">
+        <f t="shared" si="2"/>
+        <v>28.666666666666668</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>47777.777777777781</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="0"/>
-        <v>28.666666666666668</v>
-      </c>
-      <c r="P13">
+        <v>60000</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="6"/>
+        <v>0.79629629629629639</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="2"/>
-        <v>47777.777777777781</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="4"/>
-        <v>0.79629629629629639</v>
-      </c>
-      <c r="U13">
-        <f>Q13/15000</f>
         <v>3.1851851851851856</v>
       </c>
     </row>
@@ -1497,31 +1513,31 @@
         <v>5</v>
       </c>
       <c r="O14">
+        <f t="shared" si="2"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>35555.555555555555</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>3888.8888888888891</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="0"/>
-        <v>21.333333333333332</v>
-      </c>
-      <c r="P14">
+        <v>60000</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="6"/>
+        <v>0.59259259259259256</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="1"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="2"/>
-        <v>35555.555555555555</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="3"/>
-        <v>3888.8888888888891</v>
-      </c>
-      <c r="S14">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="4"/>
-        <v>0.59259259259259256</v>
-      </c>
-      <c r="U14">
-        <f>Q14/15000</f>
         <v>2.3703703703703702</v>
       </c>
       <c r="V14" t="s">
@@ -1572,31 +1588,31 @@
         <v>0</v>
       </c>
       <c r="O15">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>51666.666666666664</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="P15">
+        <v>60000</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="6"/>
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="2"/>
-        <v>51666.666666666664</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="4"/>
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="U15">
-        <f>Q15/15000</f>
         <v>3.4444444444444442</v>
       </c>
     </row>
@@ -1644,31 +1660,31 @@
         <v>10</v>
       </c>
       <c r="O16">
+        <f t="shared" si="2"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>31111.111111111113</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="5"/>
+        <v>6666.666666666667</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="0"/>
-        <v>18.666666666666668</v>
-      </c>
-      <c r="P16">
+        <v>60000</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="6"/>
+        <v>0.5185185185185186</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="2"/>
-        <v>31111.111111111113</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="3"/>
-        <v>6666.666666666667</v>
-      </c>
-      <c r="S16">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="4"/>
-        <v>0.5185185185185186</v>
-      </c>
-      <c r="U16">
-        <f>Q16/15000</f>
         <v>2.0740740740740744</v>
       </c>
       <c r="V16" t="s">
@@ -1719,31 +1735,31 @@
         <v>0</v>
       </c>
       <c r="O17">
+        <f t="shared" si="2"/>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>42222.222222222226</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="0"/>
-        <v>25.333333333333332</v>
-      </c>
-      <c r="P17">
+        <v>60000</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="6"/>
+        <v>0.70370370370370372</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="2"/>
-        <v>42222.222222222226</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="4"/>
-        <v>0.70370370370370372</v>
-      </c>
-      <c r="U17">
-        <f>Q17/15000</f>
         <v>2.8148148148148149</v>
       </c>
       <c r="V17" t="s">
@@ -1794,31 +1810,31 @@
         <v>0</v>
       </c>
       <c r="O18">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>51666.666666666664</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="P18">
+        <v>60000</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="6"/>
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="2"/>
-        <v>51666.666666666664</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="4"/>
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="U18">
-        <f>Q18/15000</f>
         <v>3.4444444444444442</v>
       </c>
     </row>
@@ -1866,31 +1882,31 @@
         <v>0</v>
       </c>
       <c r="O19">
+        <f t="shared" si="2"/>
+        <v>30.333333333333332</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>50555.555555555555</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
         <f t="shared" si="0"/>
-        <v>30.333333333333332</v>
-      </c>
-      <c r="P19">
+        <v>60000</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="6"/>
+        <v>0.84259259259259256</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="2"/>
-        <v>50555.555555555555</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="4"/>
-        <v>0.84259259259259256</v>
-      </c>
-      <c r="U19">
-        <f>Q19/15000</f>
         <v>3.3703703703703702</v>
       </c>
     </row>
@@ -1938,31 +1954,31 @@
         <v>0</v>
       </c>
       <c r="O20">
+        <f t="shared" si="2"/>
+        <v>29.666666666666668</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>49444.444444444445</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="5"/>
+        <v>555.55555555555554</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="0"/>
-        <v>29.666666666666668</v>
-      </c>
-      <c r="P20">
+        <v>60000</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="6"/>
+        <v>0.82407407407407407</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="2"/>
-        <v>49444.444444444445</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="3"/>
-        <v>555.55555555555554</v>
-      </c>
-      <c r="S20">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="4"/>
-        <v>0.82407407407407407</v>
-      </c>
-      <c r="U20">
-        <f>Q20/15000</f>
         <v>3.2962962962962963</v>
       </c>
     </row>
@@ -2010,31 +2026,31 @@
         <v>0</v>
       </c>
       <c r="O21">
+        <f t="shared" si="2"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>44444.444444444445</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
         <f t="shared" si="0"/>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="P21">
+        <v>60000</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="6"/>
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="2"/>
-        <v>44444.444444444445</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="4"/>
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="U21">
-        <f>Q21/15000</f>
         <v>2.9629629629629628</v>
       </c>
     </row>
@@ -2082,31 +2098,31 @@
         <v>0</v>
       </c>
       <c r="O22">
+        <f t="shared" si="2"/>
+        <v>34.333333333333336</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>57222.222222222226</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
         <f t="shared" si="0"/>
-        <v>34.333333333333336</v>
-      </c>
-      <c r="P22">
+        <v>60000</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="6"/>
+        <v>0.95370370370370372</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="2"/>
-        <v>57222.222222222226</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="4"/>
-        <v>0.95370370370370372</v>
-      </c>
-      <c r="U22">
-        <f>Q22/15000</f>
         <v>3.8148148148148149</v>
       </c>
     </row>
@@ -2154,31 +2170,31 @@
         <v>0</v>
       </c>
       <c r="O23">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>40000</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="P23">
+        <v>60000</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="2"/>
-        <v>40000</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="U23">
-        <f>Q23/15000</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
@@ -2226,31 +2242,31 @@
         <v>24</v>
       </c>
       <c r="O24">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>33333.333333333336</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="5"/>
+        <v>18333.333333333332</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="P24">
+        <v>60000</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="6"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="2"/>
-        <v>33333.333333333336</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="3"/>
-        <v>18333.333333333332</v>
-      </c>
-      <c r="S24">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="4"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="U24">
-        <f>Q24/15000</f>
         <v>2.2222222222222223</v>
       </c>
       <c r="V24" t="s">
@@ -2301,31 +2317,31 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>48333.333333333336</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="5"/>
+        <v>555.55555555555554</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="P25">
+        <v>60000</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="6"/>
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="2"/>
-        <v>48333.333333333336</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="3"/>
-        <v>555.55555555555554</v>
-      </c>
-      <c r="S25">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="4"/>
-        <v>0.80555555555555558</v>
-      </c>
-      <c r="U25">
-        <f>Q25/15000</f>
         <v>3.2222222222222223</v>
       </c>
     </row>
@@ -2373,31 +2389,31 @@
         <v>0</v>
       </c>
       <c r="O26">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="4"/>
+        <v>58500</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="P26">
+        <v>60000</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="6"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="U26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="2"/>
-        <v>58500</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="4"/>
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="U26">
-        <f>Q26/15000</f>
         <v>3.9</v>
       </c>
       <c r="V26" t="s">
@@ -2448,23 +2464,23 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="5"/>
+        <v>1160</v>
+      </c>
+      <c r="U27">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="3"/>
-        <v>1160</v>
-      </c>
-      <c r="U27">
-        <f>Q27/15000</f>
         <v>0</v>
       </c>
       <c r="V27" t="s">
@@ -2515,19 +2531,19 @@
         <v>20</v>
       </c>
       <c r="O28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="P28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>72800</v>
       </c>
       <c r="R28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S28">
@@ -2535,11 +2551,11 @@
         <v>60000</v>
       </c>
       <c r="T28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2133333333333334</v>
       </c>
       <c r="U28">
-        <f>Q28/15000</f>
+        <f t="shared" si="1"/>
         <v>4.8533333333333335</v>
       </c>
       <c r="V28" t="s">
@@ -2590,23 +2606,23 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="P29">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>1866.6666666666665</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="5"/>
+        <v>933.33333333333326</v>
+      </c>
+      <c r="U29">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="2"/>
-        <v>1866.6666666666665</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="3"/>
-        <v>933.33333333333326</v>
-      </c>
-      <c r="U29">
-        <f>Q29/15000</f>
         <v>0.12444444444444444</v>
       </c>
     </row>
@@ -2654,19 +2670,19 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>34.666666666666664</v>
       </c>
       <c r="P30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41600</v>
       </c>
       <c r="R30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>800</v>
       </c>
       <c r="S30">
@@ -2678,7 +2694,7 @@
         <v>0.70333333333333337</v>
       </c>
       <c r="U30">
-        <f>Q30/15000</f>
+        <f t="shared" si="1"/>
         <v>2.7733333333333334</v>
       </c>
     </row>
@@ -2726,19 +2742,19 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="P31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="R31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
     </row>
@@ -2786,19 +2802,19 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="P32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37200</v>
       </c>
       <c r="R32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1240</v>
       </c>
       <c r="S32">
@@ -2806,7 +2822,7 @@
         <v>60000</v>
       </c>
       <c r="T32">
-        <f t="shared" ref="T31:T72" si="5">SUM(Q32:Q33)/S32</f>
+        <f t="shared" ref="T32:T72" si="7">SUM(Q32:Q33)/S32</f>
         <v>0.66</v>
       </c>
       <c r="U32">
@@ -2858,19 +2874,19 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2400</v>
       </c>
       <c r="R33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>266.66666666666669</v>
       </c>
     </row>
@@ -2918,19 +2934,19 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20.333333333333332</v>
       </c>
       <c r="P34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44733.333333333328</v>
       </c>
       <c r="R34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S34">
@@ -2938,7 +2954,7 @@
         <v>60000</v>
       </c>
       <c r="T34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.74555555555555553</v>
       </c>
       <c r="U34">
@@ -2990,19 +3006,19 @@
         <v>5</v>
       </c>
       <c r="O35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3200</v>
       </c>
       <c r="U35">
@@ -3054,19 +3070,19 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24.666666666666668</v>
       </c>
       <c r="P36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32066.666666666668</v>
       </c>
       <c r="R36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S36">
@@ -3074,7 +3090,7 @@
         <v>60000</v>
       </c>
       <c r="T36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.54555555555555557</v>
       </c>
       <c r="U36">
@@ -3126,19 +3142,19 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="P37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>666.66666666666663</v>
       </c>
       <c r="R37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3186,19 +3202,19 @@
         <v>1</v>
       </c>
       <c r="O38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24.666666666666668</v>
       </c>
       <c r="P38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34533.333333333336</v>
       </c>
       <c r="R38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1400</v>
       </c>
       <c r="S38">
@@ -3206,7 +3222,7 @@
         <v>60000</v>
       </c>
       <c r="T38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.58933333333333338</v>
       </c>
       <c r="U38">
@@ -3258,19 +3274,19 @@
         <v>1</v>
       </c>
       <c r="O39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="P39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>826.66666666666663</v>
       </c>
       <c r="R39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1240</v>
       </c>
     </row>
@@ -3318,19 +3334,19 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26.666666666666668</v>
       </c>
       <c r="P40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37333.333333333336</v>
       </c>
       <c r="R40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>466.66666666666663</v>
       </c>
       <c r="S40">
@@ -3338,7 +3354,7 @@
         <v>60000</v>
       </c>
       <c r="T40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.62222222222222223</v>
       </c>
       <c r="U40">
@@ -3390,19 +3406,19 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>800</v>
       </c>
       <c r="U41">
@@ -3454,19 +3470,19 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31.666666666666668</v>
       </c>
       <c r="P42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44333.333333333336</v>
       </c>
       <c r="R42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1400</v>
       </c>
       <c r="S42">
@@ -3474,7 +3490,7 @@
         <v>60000</v>
       </c>
       <c r="T42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.73888888888888893</v>
       </c>
       <c r="U42">
@@ -3526,19 +3542,19 @@
         <v>1</v>
       </c>
       <c r="O43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1160</v>
       </c>
       <c r="U43">
@@ -3590,19 +3606,19 @@
         <v>1</v>
       </c>
       <c r="O44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31.333333333333332</v>
       </c>
       <c r="P44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37600</v>
       </c>
       <c r="R44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1200</v>
       </c>
       <c r="S44">
@@ -3610,7 +3626,7 @@
         <v>60000</v>
       </c>
       <c r="T44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.65333333333333332</v>
       </c>
       <c r="U44">
@@ -3662,19 +3678,19 @@
         <v>2</v>
       </c>
       <c r="O45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1600</v>
       </c>
       <c r="R45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>800</v>
       </c>
     </row>
@@ -3722,19 +3738,19 @@
         <v>2</v>
       </c>
       <c r="O46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29.333333333333332</v>
       </c>
       <c r="P46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41066.666666666664</v>
       </c>
       <c r="R46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>933.33333333333326</v>
       </c>
       <c r="S46">
@@ -3742,7 +3758,7 @@
         <v>60000</v>
       </c>
       <c r="T46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.74311111111111106</v>
       </c>
       <c r="U46">
@@ -3794,19 +3810,19 @@
         <v>2</v>
       </c>
       <c r="O47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="P47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3520</v>
       </c>
       <c r="R47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>960</v>
       </c>
     </row>
@@ -3854,19 +3870,19 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="P48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39600</v>
       </c>
       <c r="R48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S48">
@@ -3874,7 +3890,7 @@
         <v>60000</v>
       </c>
       <c r="T48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.66500000000000004</v>
       </c>
       <c r="U48">
@@ -3926,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="R49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
     </row>
@@ -3986,19 +4002,19 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="P50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>31200</v>
       </c>
       <c r="R50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S50">
@@ -4006,7 +4022,7 @@
         <v>60000</v>
       </c>
       <c r="T50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.5477777777777777</v>
       </c>
       <c r="U50">
@@ -4058,19 +4074,19 @@
         <v>1</v>
       </c>
       <c r="O51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="P51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1666.6666666666667</v>
       </c>
       <c r="R51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>333.33333333333331</v>
       </c>
     </row>
@@ -4118,19 +4134,19 @@
         <v>1</v>
       </c>
       <c r="O52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="P52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37200</v>
       </c>
       <c r="R52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1600</v>
       </c>
       <c r="S52">
@@ -4138,7 +4154,7 @@
         <v>60000</v>
       </c>
       <c r="T52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.63777777777777778</v>
       </c>
       <c r="U52">
@@ -4190,19 +4206,19 @@
         <v>1</v>
       </c>
       <c r="O53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="P53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1066.6666666666667</v>
       </c>
       <c r="R53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>266.66666666666669</v>
       </c>
     </row>
@@ -4250,19 +4266,19 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="P54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70000</v>
       </c>
       <c r="R54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S54">
@@ -4270,7 +4286,7 @@
         <v>60000</v>
       </c>
       <c r="T54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1773333333333333</v>
       </c>
       <c r="U54">
@@ -4322,19 +4338,19 @@
         <v>1</v>
       </c>
       <c r="O55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="P55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>640</v>
       </c>
       <c r="R55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1280</v>
       </c>
     </row>
@@ -4382,19 +4398,19 @@
         <v>3</v>
       </c>
       <c r="O56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="P56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30800</v>
       </c>
       <c r="R56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1866.6666666666665</v>
       </c>
       <c r="S56">
@@ -4402,7 +4418,7 @@
         <v>60000</v>
       </c>
       <c r="T56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="U56">
@@ -4454,19 +4470,19 @@
         <v>1</v>
       </c>
       <c r="O57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="R57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
     </row>
@@ -4514,19 +4530,19 @@
         <v>0</v>
       </c>
       <c r="O58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="P58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33000</v>
       </c>
       <c r="R58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S58">
@@ -4534,7 +4550,7 @@
         <v>60000</v>
       </c>
       <c r="T58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.62</v>
       </c>
       <c r="U58">
@@ -4586,19 +4602,19 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4200</v>
       </c>
       <c r="R59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4646,19 +4662,19 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12.666666666666666</v>
       </c>
       <c r="P60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27866.666666666664</v>
       </c>
       <c r="R60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S60">
@@ -4666,7 +4682,7 @@
         <v>60000</v>
       </c>
       <c r="T60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.4844444444444444</v>
       </c>
       <c r="U60">
@@ -4718,19 +4734,19 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="R61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4778,19 +4794,19 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="P62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35960</v>
       </c>
       <c r="R62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S62">
@@ -4798,7 +4814,7 @@
         <v>60000</v>
       </c>
       <c r="T62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.59933333333333338</v>
       </c>
       <c r="U62">
@@ -4850,19 +4866,19 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4910,19 +4926,19 @@
         <v>0</v>
       </c>
       <c r="O64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28.333333333333332</v>
       </c>
       <c r="P64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34000</v>
       </c>
       <c r="R64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="S64">
@@ -4930,7 +4946,7 @@
         <v>60000</v>
       </c>
       <c r="T64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.58888888888888891</v>
       </c>
       <c r="U64">
@@ -4982,19 +4998,19 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="P65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1333.3333333333335</v>
       </c>
       <c r="R65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5042,19 +5058,19 @@
         <v>1</v>
       </c>
       <c r="O66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="P66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22800</v>
       </c>
       <c r="R66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>800</v>
       </c>
       <c r="S66">
@@ -5062,7 +5078,7 @@
         <v>60000</v>
       </c>
       <c r="T66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.39333333333333331</v>
       </c>
       <c r="U66">
@@ -5114,19 +5130,19 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O130" si="6">AVERAGE(I67,K67,M67)</f>
+        <f t="shared" ref="O67:O156" si="8">AVERAGE(I67,K67,M67)</f>
         <v>1</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P130" si="7">AVERAGE(J67,L67,N67)</f>
+        <f t="shared" ref="P67:P156" si="9">AVERAGE(J67,L67,N67)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q130" si="8">(O67/H67)*G67</f>
+        <f t="shared" ref="Q67:Q156" si="10">(O67/H67)*G67</f>
         <v>800</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R130" si="9">(P67/H67)*G67</f>
+        <f t="shared" ref="R67:R156" si="11">(P67/H67)*G67</f>
         <v>266.66666666666669</v>
       </c>
     </row>
@@ -5174,19 +5190,19 @@
         <v>1</v>
       </c>
       <c r="O68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>28.666666666666668</v>
       </c>
       <c r="P68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>34400</v>
       </c>
       <c r="R68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1200</v>
       </c>
       <c r="S68">
@@ -5194,7 +5210,7 @@
         <v>60000</v>
       </c>
       <c r="T68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.59555555555555562</v>
       </c>
       <c r="U68">
@@ -5246,19 +5262,19 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="P69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1333.3333333333335</v>
       </c>
       <c r="R69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>266.66666666666669</v>
       </c>
     </row>
@@ -5303,19 +5319,19 @@
         <v>10</v>
       </c>
       <c r="O70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="P70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18200</v>
       </c>
       <c r="R70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S70">
@@ -5434,19 +5450,19 @@
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>28.666666666666668</v>
       </c>
       <c r="P72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>40133.333333333336</v>
       </c>
       <c r="R72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S72">
@@ -5454,7 +5470,7 @@
         <v>60000</v>
       </c>
       <c r="T72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.74888888888888894</v>
       </c>
       <c r="U72">
@@ -5506,19 +5522,19 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4800</v>
       </c>
       <c r="R73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>400</v>
       </c>
     </row>
@@ -5560,31 +5576,31 @@
         <v>1</v>
       </c>
       <c r="O74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="P74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>41600</v>
       </c>
       <c r="R74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>533.33333333333337</v>
       </c>
       <c r="S74">
-        <f>15000*4</f>
+        <f t="shared" ref="S74:S124" si="12">15000*4</f>
         <v>60000</v>
       </c>
       <c r="T74">
-        <f t="shared" ref="T67:T98" si="10">Q74/S74</f>
+        <f t="shared" ref="T74:T124" si="13">Q74/S74</f>
         <v>0.69333333333333336</v>
       </c>
       <c r="U74">
-        <f>Q74/15000</f>
+        <f t="shared" ref="U74:U124" si="14">Q74/15000</f>
         <v>2.7733333333333334</v>
       </c>
     </row>
@@ -5626,31 +5642,31 @@
         <v>2</v>
       </c>
       <c r="O75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>21.666666666666668</v>
       </c>
       <c r="P75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>34666.666666666664</v>
       </c>
       <c r="R75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3733.3333333333335</v>
       </c>
       <c r="S75">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.57777777777777772</v>
       </c>
       <c r="U75">
-        <f>Q75/15000</f>
+        <f t="shared" si="14"/>
         <v>2.3111111111111109</v>
       </c>
     </row>
@@ -5692,31 +5708,31 @@
         <v>1</v>
       </c>
       <c r="O76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="P76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>46400</v>
       </c>
       <c r="R76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>533.33333333333337</v>
       </c>
       <c r="S76">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.77333333333333332</v>
       </c>
       <c r="U76">
-        <f>Q76/15000</f>
+        <f t="shared" si="14"/>
         <v>3.0933333333333333</v>
       </c>
     </row>
@@ -5758,31 +5774,31 @@
         <v>1</v>
       </c>
       <c r="O77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="P77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>36000</v>
       </c>
       <c r="R77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1500</v>
       </c>
       <c r="S77">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
       <c r="U77">
-        <f>Q77/15000</f>
+        <f t="shared" si="14"/>
         <v>2.4</v>
       </c>
     </row>
@@ -5824,31 +5840,31 @@
         <v>0</v>
       </c>
       <c r="O78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="P78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>43680</v>
       </c>
       <c r="R78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>520</v>
       </c>
       <c r="S78">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.72799999999999998</v>
       </c>
       <c r="U78">
-        <f>Q78/15000</f>
+        <f t="shared" si="14"/>
         <v>2.9119999999999999</v>
       </c>
     </row>
@@ -5890,31 +5906,31 @@
         <v>0</v>
       </c>
       <c r="O79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24.666666666666668</v>
       </c>
       <c r="P79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>35520</v>
       </c>
       <c r="R79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>480</v>
       </c>
       <c r="S79">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.59199999999999997</v>
       </c>
       <c r="U79">
-        <f>Q79/15000</f>
+        <f t="shared" si="14"/>
         <v>2.3679999999999999</v>
       </c>
     </row>
@@ -5956,31 +5972,31 @@
         <v>1</v>
       </c>
       <c r="O80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>23.666666666666668</v>
       </c>
       <c r="P80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>30766.666666666672</v>
       </c>
       <c r="R80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>433.33333333333331</v>
       </c>
       <c r="S80">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.51277777777777789</v>
       </c>
       <c r="U80">
-        <f>Q80/15000</f>
+        <f t="shared" si="14"/>
         <v>2.0511111111111116</v>
       </c>
     </row>
@@ -6022,31 +6038,31 @@
         <v>0</v>
       </c>
       <c r="O81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>21.333333333333332</v>
       </c>
       <c r="P81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>32000</v>
       </c>
       <c r="R81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S81">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="U81">
-        <f>Q81/15000</f>
+        <f t="shared" si="14"/>
         <v>2.1333333333333333</v>
       </c>
     </row>
@@ -6088,31 +6104,31 @@
         <v>0</v>
       </c>
       <c r="O82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="P82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>48000</v>
       </c>
       <c r="R82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1600</v>
       </c>
       <c r="S82">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
       <c r="U82">
-        <f>Q82/15000</f>
+        <f t="shared" si="14"/>
         <v>3.2</v>
       </c>
     </row>
@@ -6154,31 +6170,31 @@
         <v>2</v>
       </c>
       <c r="O83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44.5</v>
       </c>
       <c r="P83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>66750</v>
       </c>
       <c r="R83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3000</v>
       </c>
       <c r="S83">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1125</v>
       </c>
       <c r="U83">
-        <f>Q83/15000</f>
+        <f t="shared" si="14"/>
         <v>4.45</v>
       </c>
     </row>
@@ -6220,31 +6236,31 @@
         <v>1</v>
       </c>
       <c r="O84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="P84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>46200</v>
       </c>
       <c r="R84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>733.33333333333326</v>
       </c>
       <c r="S84">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.77</v>
       </c>
       <c r="U84">
-        <f>Q84/15000</f>
+        <f t="shared" si="14"/>
         <v>3.08</v>
       </c>
     </row>
@@ -6286,31 +6302,31 @@
         <v>0</v>
       </c>
       <c r="O85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25.666666666666668</v>
       </c>
       <c r="P85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>41066.666666666672</v>
       </c>
       <c r="R85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>533.33333333333337</v>
       </c>
       <c r="S85">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.68444444444444452</v>
       </c>
       <c r="U85">
-        <f>Q85/15000</f>
+        <f t="shared" si="14"/>
         <v>2.7377777777777781</v>
       </c>
     </row>
@@ -6352,31 +6368,31 @@
         <v>1</v>
       </c>
       <c r="O86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25.333333333333332</v>
       </c>
       <c r="P86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>40533.333333333336</v>
       </c>
       <c r="R86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1066.6666666666667</v>
       </c>
       <c r="S86">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67555555555555558</v>
       </c>
       <c r="U86">
-        <f>Q86/15000</f>
+        <f t="shared" si="14"/>
         <v>2.7022222222222223</v>
       </c>
     </row>
@@ -6418,31 +6434,31 @@
         <v>1</v>
       </c>
       <c r="O87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="P87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>39100</v>
       </c>
       <c r="R87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>566.66666666666663</v>
       </c>
       <c r="S87">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.65166666666666662</v>
       </c>
       <c r="U87">
-        <f>Q87/15000</f>
+        <f t="shared" si="14"/>
         <v>2.6066666666666665</v>
       </c>
     </row>
@@ -6484,31 +6500,31 @@
         <v>0</v>
       </c>
       <c r="O88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13.333333333333334</v>
       </c>
       <c r="P88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>26666.666666666668</v>
       </c>
       <c r="R88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2000</v>
       </c>
       <c r="S88">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.44444444444444448</v>
       </c>
       <c r="U88">
-        <f>Q88/15000</f>
+        <f t="shared" si="14"/>
         <v>1.7777777777777779</v>
       </c>
     </row>
@@ -6550,31 +6566,31 @@
         <v>1</v>
       </c>
       <c r="O89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13.333333333333334</v>
       </c>
       <c r="P89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>26666.666666666668</v>
       </c>
       <c r="R89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1333.3333333333333</v>
       </c>
       <c r="S89">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.44444444444444448</v>
       </c>
       <c r="U89">
-        <f>Q89/15000</f>
+        <f t="shared" si="14"/>
         <v>1.7777777777777779</v>
       </c>
     </row>
@@ -6616,31 +6632,31 @@
         <v>3</v>
       </c>
       <c r="O90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="P90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>37440</v>
       </c>
       <c r="R90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2400</v>
       </c>
       <c r="S90">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.624</v>
       </c>
       <c r="U90">
-        <f>Q90/15000</f>
+        <f t="shared" si="14"/>
         <v>2.496</v>
       </c>
     </row>
@@ -6682,31 +6698,31 @@
         <v>0</v>
       </c>
       <c r="O91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17.333333333333332</v>
       </c>
       <c r="P91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>27733.333333333332</v>
       </c>
       <c r="R91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>533.33333333333337</v>
       </c>
       <c r="S91">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.4622222222222222</v>
       </c>
       <c r="U91">
-        <f>Q91/15000</f>
+        <f t="shared" si="14"/>
         <v>1.8488888888888888</v>
       </c>
     </row>
@@ -6748,31 +6764,31 @@
         <v>1</v>
       </c>
       <c r="O92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18.333333333333332</v>
       </c>
       <c r="P92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>36666.666666666664</v>
       </c>
       <c r="R92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3333.3333333333335</v>
       </c>
       <c r="S92">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.61111111111111105</v>
       </c>
       <c r="U92">
-        <f>Q92/15000</f>
+        <f t="shared" si="14"/>
         <v>2.4444444444444442</v>
       </c>
     </row>
@@ -6814,31 +6830,31 @@
         <v>0</v>
       </c>
       <c r="O93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17.666666666666668</v>
       </c>
       <c r="P93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>31800</v>
       </c>
       <c r="R93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1800</v>
       </c>
       <c r="S93">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.53</v>
       </c>
       <c r="U93">
-        <f>Q93/15000</f>
+        <f t="shared" si="14"/>
         <v>2.12</v>
       </c>
     </row>
@@ -6880,31 +6896,31 @@
         <v>0</v>
       </c>
       <c r="O94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14.333333333333334</v>
       </c>
       <c r="P94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>25226.666666666668</v>
       </c>
       <c r="R94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S94">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.42044444444444445</v>
       </c>
       <c r="U94">
-        <f>Q94/15000</f>
+        <f t="shared" si="14"/>
         <v>1.6817777777777778</v>
       </c>
     </row>
@@ -6946,31 +6962,31 @@
         <v>0</v>
       </c>
       <c r="O95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="P95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>36000</v>
       </c>
       <c r="R95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="S95">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
       <c r="U95">
-        <f>Q95/15000</f>
+        <f t="shared" si="14"/>
         <v>2.4</v>
       </c>
     </row>
@@ -7012,31 +7028,31 @@
         <v>0</v>
       </c>
       <c r="O96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18.333333333333332</v>
       </c>
       <c r="P96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>33000</v>
       </c>
       <c r="R96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>600</v>
       </c>
       <c r="S96">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="U96">
-        <f>Q96/15000</f>
+        <f t="shared" si="14"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -7078,31 +7094,31 @@
         <v>1</v>
       </c>
       <c r="O97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>21.333333333333332</v>
       </c>
       <c r="P97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>36266.666666666664</v>
       </c>
       <c r="R97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>566.66666666666663</v>
       </c>
       <c r="S97">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.60444444444444445</v>
       </c>
       <c r="U97">
-        <f>Q97/15000</f>
+        <f t="shared" si="14"/>
         <v>2.4177777777777778</v>
       </c>
     </row>
@@ -7114,41 +7130,62 @@
         <v>42954</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F98">
         <v>80</v>
       </c>
+      <c r="G98">
+        <v>500000</v>
+      </c>
       <c r="H98">
         <v>250</v>
       </c>
-      <c r="O98" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P98" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q98" t="e">
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R98" t="e">
+        <v>0</v>
+      </c>
+      <c r="P98">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S98">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T98" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U98" t="e">
-        <f>Q98/15000</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T98">
+        <f>SUM(Q98,Q99)/S98</f>
+        <v>0.53666666666666663</v>
+      </c>
+      <c r="U98">
+        <f>SUM(Q98,Q99)/15000</f>
+        <v>2.1466666666666665</v>
       </c>
     </row>
     <row r="99" spans="3:21" x14ac:dyDescent="0.2">
@@ -7159,29 +7196,50 @@
         <v>42954</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F99">
         <v>60</v>
       </c>
+      <c r="G99">
+        <v>350000</v>
+      </c>
       <c r="H99">
         <v>250</v>
       </c>
-      <c r="O99" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P99" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q99" t="e">
+      <c r="I99">
+        <v>22</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>21</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>26</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R99" t="e">
+        <v>23</v>
+      </c>
+      <c r="P99">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="10"/>
+        <v>32200</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="11"/>
+        <v>1866.6666666666665</v>
       </c>
     </row>
     <row r="100" spans="3:21" x14ac:dyDescent="0.2">
@@ -7192,41 +7250,62 @@
         <v>42954</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F100">
         <v>80</v>
       </c>
+      <c r="G100">
+        <v>350000</v>
+      </c>
       <c r="H100">
         <v>250</v>
       </c>
-      <c r="O100" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P100" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q100" t="e">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R100" t="e">
+        <v>0</v>
+      </c>
+      <c r="P100">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="S100">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T100" t="e">
-        <f t="shared" ref="T100" si="11">Q100/S100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U100" t="e">
-        <f>Q100/15000</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T100">
+        <f>SUM(Q100,Q101)/S100</f>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="U100">
+        <f>SUM(Q100,Q101)/15000</f>
+        <v>1.6533333333333333</v>
       </c>
     </row>
     <row r="101" spans="3:21" x14ac:dyDescent="0.2">
@@ -7237,29 +7316,50 @@
         <v>42954</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F101">
         <v>60</v>
       </c>
+      <c r="G101">
+        <v>300000</v>
+      </c>
       <c r="H101">
         <v>250</v>
       </c>
-      <c r="O101" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P101" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q101" t="e">
+      <c r="I101">
+        <v>18</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>20</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>24</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R101" t="e">
+        <v>20.666666666666668</v>
+      </c>
+      <c r="P101">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="10"/>
+        <v>24800</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="11"/>
+        <v>1200</v>
       </c>
     </row>
     <row r="102" spans="3:21" x14ac:dyDescent="0.2">
@@ -7270,41 +7370,62 @@
         <v>42954</v>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F102">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="G102">
+        <v>350000</v>
       </c>
       <c r="H102">
         <v>250</v>
       </c>
-      <c r="O102" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P102" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q102" t="e">
+      <c r="I102">
+        <v>15</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>27</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>30</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R102" t="e">
+        <v>24</v>
+      </c>
+      <c r="P102">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="10"/>
+        <v>33600</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="11"/>
+        <v>466.66666666666663</v>
       </c>
       <c r="S102">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T102" t="e">
-        <f>SUM(Q102:Q103)/S102</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U102" t="e">
-        <f>Q102/15000</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T102">
+        <f t="shared" ref="T102" si="15">Q102/S102</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U102">
+        <f t="shared" ref="U102" si="16">Q102/15000</f>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="103" spans="3:21" x14ac:dyDescent="0.2">
@@ -7315,29 +7436,62 @@
         <v>42954</v>
       </c>
       <c r="E103">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F103">
         <v>60</v>
       </c>
+      <c r="G103" s="3">
+        <v>350000</v>
+      </c>
       <c r="H103">
         <v>250</v>
       </c>
-      <c r="O103" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P103" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q103" t="e">
+      <c r="I103">
+        <v>15</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>18</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>12</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R103" t="e">
+        <v>15</v>
+      </c>
+      <c r="P103">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="10"/>
+        <v>21000</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="11"/>
+        <v>466.66666666666663</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T103">
+        <f t="shared" ref="T103:T123" si="17">Q103/S103</f>
+        <v>0.35</v>
+      </c>
+      <c r="U103">
+        <f t="shared" ref="U103:U123" si="18">Q103/15000</f>
+        <v>1.4</v>
       </c>
     </row>
     <row r="104" spans="3:21" x14ac:dyDescent="0.2">
@@ -7351,38 +7505,59 @@
         <v>4</v>
       </c>
       <c r="F104">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="G104">
+        <v>425000</v>
       </c>
       <c r="H104">
         <v>250</v>
       </c>
-      <c r="O104" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P104" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q104" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R104" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I104">
+        <v>22</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>24</v>
+      </c>
+      <c r="L104" s="3">
+        <v>0</v>
+      </c>
+      <c r="M104" s="3">
+        <v>18</v>
+      </c>
+      <c r="N104" s="3">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <f t="shared" ref="O104:O123" si="19">AVERAGE(I104,K104,M104)</f>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="P104">
+        <f t="shared" ref="P104:P123" si="20">AVERAGE(J104,L104,N104)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" ref="Q104:Q123" si="21">(O104/H104)*G104</f>
+        <v>36266.666666666664</v>
+      </c>
+      <c r="R104">
+        <f t="shared" ref="R104:R123" si="22">(P104/H104)*G104</f>
+        <v>566.66666666666663</v>
       </c>
       <c r="S104">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T104" t="e">
-        <f t="shared" ref="T104" si="12">SUM(Q104:Q105)/S104</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U104" t="e">
-        <f>Q104/15000</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T104">
+        <f t="shared" si="17"/>
+        <v>0.60444444444444445</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="18"/>
+        <v>2.4177777777777778</v>
       </c>
     </row>
     <row r="105" spans="3:21" x14ac:dyDescent="0.2">
@@ -7393,29 +7568,62 @@
         <v>42954</v>
       </c>
       <c r="E105">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F105">
         <v>60</v>
       </c>
+      <c r="G105">
+        <v>300000</v>
+      </c>
       <c r="H105">
         <v>250</v>
       </c>
-      <c r="O105" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P105" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q105" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R105" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I105">
+        <v>27</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>17</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>16</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="21"/>
+        <v>24000</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T105">
+        <f t="shared" si="17"/>
+        <v>0.4</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="18"/>
+        <v>1.6</v>
       </c>
     </row>
     <row r="106" spans="3:21" x14ac:dyDescent="0.2">
@@ -7426,41 +7634,62 @@
         <v>42954</v>
       </c>
       <c r="E106">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F106">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="G106">
+        <v>375000</v>
       </c>
       <c r="H106">
         <v>250</v>
       </c>
-      <c r="O106" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P106" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q106" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R106" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I106">
+        <v>19</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>16</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>21</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="19"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="21"/>
+        <v>28000.000000000004</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="S106">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T106" t="e">
-        <f t="shared" ref="T106" si="13">SUM(Q106:Q107)/S106</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U106" t="e">
-        <f>Q106/15000</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="17"/>
+        <v>0.46666666666666673</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="18"/>
+        <v>1.8666666666666669</v>
       </c>
     </row>
     <row r="107" spans="3:21" x14ac:dyDescent="0.2">
@@ -7471,29 +7700,62 @@
         <v>42954</v>
       </c>
       <c r="E107">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F107">
         <v>60</v>
       </c>
+      <c r="G107">
+        <v>375000</v>
+      </c>
       <c r="H107">
         <v>250</v>
       </c>
-      <c r="O107" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P107" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q107" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R107" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I107">
+        <v>17</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>21</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>20</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="19"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="20"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="21"/>
+        <v>28999.999999999996</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="22"/>
+        <v>500</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="17"/>
+        <v>0.48333333333333328</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="18"/>
+        <v>1.9333333333333331</v>
       </c>
     </row>
     <row r="108" spans="3:21" x14ac:dyDescent="0.2">
@@ -7504,41 +7766,62 @@
         <v>42954</v>
       </c>
       <c r="E108">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F108">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="G108">
+        <v>340000</v>
       </c>
       <c r="H108">
         <v>250</v>
       </c>
-      <c r="O108" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P108" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q108" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R108" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I108">
+        <v>24</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>13</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>24</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="19"/>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="21"/>
+        <v>27653.333333333332</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="22"/>
+        <v>1360</v>
       </c>
       <c r="S108">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T108" t="e">
-        <f t="shared" ref="T108" si="14">SUM(Q108:Q109)/S108</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U108" t="e">
-        <f>Q108/15000</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T108">
+        <f t="shared" si="17"/>
+        <v>0.46088888888888885</v>
+      </c>
+      <c r="U108">
+        <f t="shared" si="18"/>
+        <v>1.8435555555555554</v>
       </c>
     </row>
     <row r="109" spans="3:21" x14ac:dyDescent="0.2">
@@ -7549,29 +7832,62 @@
         <v>42954</v>
       </c>
       <c r="E109">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F109">
         <v>60</v>
       </c>
+      <c r="G109">
+        <v>350000</v>
+      </c>
       <c r="H109">
         <v>250</v>
       </c>
-      <c r="O109" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P109" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q109" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R109" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I109">
+        <v>33</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>32</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>22</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="19"/>
+        <v>29</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="20"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="21"/>
+        <v>40600</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="22"/>
+        <v>466.66666666666663</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T109">
+        <f t="shared" si="17"/>
+        <v>0.67666666666666664</v>
+      </c>
+      <c r="U109">
+        <f t="shared" si="18"/>
+        <v>2.7066666666666666</v>
       </c>
     </row>
     <row r="110" spans="3:21" x14ac:dyDescent="0.2">
@@ -7582,41 +7898,62 @@
         <v>42954</v>
       </c>
       <c r="E110">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F110">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="G110">
+        <v>325000</v>
       </c>
       <c r="H110">
         <v>250</v>
       </c>
-      <c r="O110" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P110" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q110" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R110" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I110">
+        <v>23</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>29</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>33</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="19"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="20"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="21"/>
+        <v>36833.333333333328</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="22"/>
+        <v>433.33333333333331</v>
       </c>
       <c r="S110">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T110" t="e">
-        <f t="shared" ref="T110" si="15">SUM(Q110:Q111)/S110</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U110" t="e">
-        <f>Q110/15000</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T110">
+        <f t="shared" si="17"/>
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="18"/>
+        <v>2.4555555555555553</v>
       </c>
     </row>
     <row r="111" spans="3:21" x14ac:dyDescent="0.2">
@@ -7627,29 +7964,62 @@
         <v>42954</v>
       </c>
       <c r="E111">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F111">
         <v>60</v>
       </c>
+      <c r="G111">
+        <v>475000</v>
+      </c>
       <c r="H111">
         <v>250</v>
       </c>
-      <c r="O111" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P111" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q111" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R111" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I111">
+        <v>20</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>17</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>13</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="19"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="20"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="21"/>
+        <v>31666.666666666668</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="22"/>
+        <v>633.33333333333326</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T111">
+        <f t="shared" si="17"/>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="18"/>
+        <v>2.1111111111111112</v>
       </c>
     </row>
     <row r="112" spans="3:21" x14ac:dyDescent="0.2">
@@ -7660,41 +8030,62 @@
         <v>42954</v>
       </c>
       <c r="E112">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F112">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="G112">
+        <v>300000</v>
       </c>
       <c r="H112">
         <v>250</v>
       </c>
-      <c r="O112" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P112" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q112" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R112" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I112">
+        <v>18</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>18</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>22</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="19"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="20"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="21"/>
+        <v>23199.999999999996</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="22"/>
+        <v>400</v>
       </c>
       <c r="S112">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T112" t="e">
-        <f t="shared" ref="T112" si="16">SUM(Q112:Q113)/S112</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U112" t="e">
-        <f>Q112/15000</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T112">
+        <f t="shared" si="17"/>
+        <v>0.3866666666666666</v>
+      </c>
+      <c r="U112">
+        <f t="shared" si="18"/>
+        <v>1.5466666666666664</v>
       </c>
     </row>
     <row r="113" spans="3:21" x14ac:dyDescent="0.2">
@@ -7705,29 +8096,62 @@
         <v>42954</v>
       </c>
       <c r="E113">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F113">
         <v>60</v>
       </c>
+      <c r="G113">
+        <v>300000</v>
+      </c>
       <c r="H113">
         <v>250</v>
       </c>
-      <c r="O113" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P113" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q113" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R113" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I113">
+        <v>17</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>17</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>14</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="21"/>
+        <v>19200</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T113">
+        <f t="shared" si="17"/>
+        <v>0.32</v>
+      </c>
+      <c r="U113">
+        <f t="shared" si="18"/>
+        <v>1.28</v>
       </c>
     </row>
     <row r="114" spans="3:21" x14ac:dyDescent="0.2">
@@ -7738,41 +8162,62 @@
         <v>42954</v>
       </c>
       <c r="E114">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F114">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="G114">
+        <v>375000</v>
       </c>
       <c r="H114">
         <v>250</v>
       </c>
-      <c r="O114" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P114" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q114" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R114" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I114">
+        <v>20</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>18</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>21</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="19"/>
+        <v>19.666666666666668</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="20"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="21"/>
+        <v>29500.000000000004</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="22"/>
+        <v>500</v>
       </c>
       <c r="S114">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T114" t="e">
-        <f t="shared" ref="T114" si="17">SUM(Q114:Q115)/S114</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U114" t="e">
-        <f>Q114/15000</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T114">
+        <f t="shared" si="17"/>
+        <v>0.49166666666666675</v>
+      </c>
+      <c r="U114">
+        <f t="shared" si="18"/>
+        <v>1.966666666666667</v>
       </c>
     </row>
     <row r="115" spans="3:21" x14ac:dyDescent="0.2">
@@ -7783,29 +8228,62 @@
         <v>42954</v>
       </c>
       <c r="E115">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F115">
         <v>60</v>
       </c>
+      <c r="G115">
+        <v>300000</v>
+      </c>
       <c r="H115">
         <v>250</v>
       </c>
-      <c r="O115" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P115" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q115" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R115" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I115">
+        <v>21</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>29</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>18</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="19"/>
+        <v>22.666666666666668</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="20"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="21"/>
+        <v>27200.000000000004</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="22"/>
+        <v>400</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T115">
+        <f t="shared" si="17"/>
+        <v>0.45333333333333342</v>
+      </c>
+      <c r="U115">
+        <f t="shared" si="18"/>
+        <v>1.8133333333333337</v>
       </c>
     </row>
     <row r="116" spans="3:21" x14ac:dyDescent="0.2">
@@ -7816,41 +8294,62 @@
         <v>42954</v>
       </c>
       <c r="E116">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F116">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="G116">
+        <v>400000</v>
       </c>
       <c r="H116">
         <v>250</v>
       </c>
-      <c r="O116" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P116" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q116" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R116" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I116">
+        <v>12</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>15</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>22</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="19"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="20"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="21"/>
+        <v>26133.333333333332</v>
+      </c>
+      <c r="R116">
+        <f t="shared" si="22"/>
+        <v>1066.6666666666667</v>
       </c>
       <c r="S116">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T116" t="e">
-        <f t="shared" ref="T116" si="18">SUM(Q116:Q117)/S116</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U116" t="e">
-        <f>Q116/15000</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T116">
+        <f t="shared" si="17"/>
+        <v>0.43555555555555553</v>
+      </c>
+      <c r="U116">
+        <f t="shared" si="18"/>
+        <v>1.7422222222222221</v>
       </c>
     </row>
     <row r="117" spans="3:21" x14ac:dyDescent="0.2">
@@ -7861,29 +8360,62 @@
         <v>42954</v>
       </c>
       <c r="E117">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F117">
         <v>60</v>
       </c>
+      <c r="G117">
+        <v>340000</v>
+      </c>
       <c r="H117">
         <v>250</v>
       </c>
-      <c r="O117" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P117" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q117" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R117" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I117">
+        <v>29</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>21</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>39</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="19"/>
+        <v>29.666666666666668</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="20"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="21"/>
+        <v>40346.666666666672</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="22"/>
+        <v>906.66666666666663</v>
+      </c>
+      <c r="S117">
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T117">
+        <f t="shared" si="17"/>
+        <v>0.67244444444444451</v>
+      </c>
+      <c r="U117">
+        <f t="shared" si="18"/>
+        <v>2.689777777777778</v>
       </c>
     </row>
     <row r="118" spans="3:21" x14ac:dyDescent="0.2">
@@ -7894,41 +8426,62 @@
         <v>42954</v>
       </c>
       <c r="E118">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F118">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="G118">
+        <v>300000</v>
       </c>
       <c r="H118">
         <v>250</v>
       </c>
-      <c r="O118" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P118" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q118" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R118" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I118">
+        <v>26</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>28</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>37</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="19"/>
+        <v>30.333333333333332</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="21"/>
+        <v>36400</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="S118">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T118" t="e">
-        <f t="shared" ref="T118" si="19">SUM(Q118:Q119)/S118</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U118" t="e">
-        <f>Q118/15000</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T118">
+        <f t="shared" si="17"/>
+        <v>0.60666666666666669</v>
+      </c>
+      <c r="U118">
+        <f t="shared" si="18"/>
+        <v>2.4266666666666667</v>
       </c>
     </row>
     <row r="119" spans="3:21" x14ac:dyDescent="0.2">
@@ -7939,29 +8492,62 @@
         <v>42954</v>
       </c>
       <c r="E119">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F119">
         <v>60</v>
       </c>
+      <c r="G119">
+        <v>325000</v>
+      </c>
       <c r="H119">
         <v>250</v>
       </c>
-      <c r="O119" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P119" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q119" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R119" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I119">
+        <v>25</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>31</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>33</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="19"/>
+        <v>29.666666666666668</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="20"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="21"/>
+        <v>38566.666666666664</v>
+      </c>
+      <c r="R119">
+        <f t="shared" si="22"/>
+        <v>1733.3333333333333</v>
+      </c>
+      <c r="S119">
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T119">
+        <f t="shared" si="17"/>
+        <v>0.64277777777777778</v>
+      </c>
+      <c r="U119">
+        <f t="shared" si="18"/>
+        <v>2.5711111111111111</v>
       </c>
     </row>
     <row r="120" spans="3:21" x14ac:dyDescent="0.2">
@@ -7972,41 +8558,62 @@
         <v>42954</v>
       </c>
       <c r="E120">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="G120">
+        <v>400000</v>
       </c>
       <c r="H120">
         <v>250</v>
       </c>
-      <c r="O120" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P120" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q120" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R120" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I120">
+        <v>18</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>19</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>28</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="19"/>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="20"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" si="21"/>
+        <v>34666.666666666664</v>
+      </c>
+      <c r="R120">
+        <f t="shared" si="22"/>
+        <v>1066.6666666666667</v>
       </c>
       <c r="S120">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T120" t="e">
-        <f t="shared" ref="T120" si="20">SUM(Q120:Q121)/S120</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U120" t="e">
-        <f>Q120/15000</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T120">
+        <f t="shared" si="17"/>
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="U120">
+        <f t="shared" si="18"/>
+        <v>2.3111111111111109</v>
       </c>
     </row>
     <row r="121" spans="3:21" x14ac:dyDescent="0.2">
@@ -8017,29 +8624,62 @@
         <v>42954</v>
       </c>
       <c r="E121">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F121">
         <v>60</v>
       </c>
+      <c r="G121">
+        <v>325000</v>
+      </c>
       <c r="H121">
         <v>250</v>
       </c>
-      <c r="O121" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P121" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q121" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R121" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I121">
+        <v>25</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>24</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>15</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="19"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="20"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" si="21"/>
+        <v>27733.333333333332</v>
+      </c>
+      <c r="R121">
+        <f t="shared" si="22"/>
+        <v>866.66666666666663</v>
+      </c>
+      <c r="S121">
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T121">
+        <f t="shared" si="17"/>
+        <v>0.4622222222222222</v>
+      </c>
+      <c r="U121">
+        <f t="shared" si="18"/>
+        <v>1.8488888888888888</v>
       </c>
     </row>
     <row r="122" spans="3:21" x14ac:dyDescent="0.2">
@@ -8050,41 +8690,62 @@
         <v>42954</v>
       </c>
       <c r="E122">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F122">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="G122">
+        <v>300000</v>
       </c>
       <c r="H122">
         <v>250</v>
       </c>
-      <c r="O122" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P122" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q122" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R122" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I122">
+        <v>18</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>25</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>23</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="19"/>
+        <v>22</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="20"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="21"/>
+        <v>26400</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="22"/>
+        <v>800</v>
       </c>
       <c r="S122">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="T122" t="e">
-        <f t="shared" ref="T122" si="21">SUM(Q122:Q123)/S122</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U122" t="e">
-        <f>Q122/15000</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="17"/>
+        <v>0.44</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="18"/>
+        <v>1.76</v>
       </c>
     </row>
     <row r="123" spans="3:21" x14ac:dyDescent="0.2">
@@ -8095,139 +8756,181 @@
         <v>42954</v>
       </c>
       <c r="E123">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F123">
         <v>60</v>
       </c>
+      <c r="G123">
+        <v>400000</v>
+      </c>
       <c r="H123">
         <v>250</v>
       </c>
-      <c r="O123" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P123" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q123" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R123" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="I123">
+        <v>18</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>33</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>28</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="19"/>
+        <v>26.333333333333332</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="20"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="21"/>
+        <v>42133.333333333336</v>
+      </c>
+      <c r="R123">
+        <f t="shared" si="22"/>
+        <v>2666.666666666667</v>
+      </c>
+      <c r="S123">
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="17"/>
+        <v>0.7022222222222223</v>
+      </c>
+      <c r="U123">
+        <f t="shared" si="18"/>
+        <v>2.8088888888888892</v>
       </c>
     </row>
     <row r="124" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C124" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D124" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E124">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F124">
         <v>80</v>
       </c>
+      <c r="G124">
+        <v>425000</v>
+      </c>
       <c r="H124">
         <v>250</v>
       </c>
       <c r="O124" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P124" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q124" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R124" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S124">
-        <f>15000*4</f>
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
       <c r="T124" t="e">
-        <f t="shared" ref="T124" si="22">SUM(Q124:Q125)/S124</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U124" t="e">
-        <f>Q124/15000</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="125" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C125" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D125" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E125">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F125">
         <v>60</v>
       </c>
+      <c r="G125">
+        <v>425000</v>
+      </c>
       <c r="H125">
         <v>250</v>
       </c>
       <c r="O125" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P125" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q125" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R125" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="126" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C126" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D126" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E126">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F126">
         <v>80</v>
       </c>
+      <c r="G126">
+        <v>425000</v>
+      </c>
       <c r="H126">
         <v>250</v>
       </c>
       <c r="O126" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P126" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q126" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R126" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S126">
@@ -8235,7 +8938,7 @@
         <v>60000</v>
       </c>
       <c r="T126" t="e">
-        <f t="shared" ref="T126" si="23">SUM(Q126:Q127)/S126</f>
+        <f t="shared" ref="T126" si="23">Q126/S126</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U126" t="e">
@@ -8245,67 +8948,73 @@
     </row>
     <row r="127" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C127" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D127" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E127">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F127">
         <v>60</v>
       </c>
+      <c r="G127">
+        <v>425000</v>
+      </c>
       <c r="H127">
         <v>250</v>
       </c>
       <c r="O127" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P127" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q127" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R127" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="128" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C128" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D128" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E128">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F128">
         <v>80</v>
       </c>
+      <c r="G128">
+        <v>425000</v>
+      </c>
       <c r="H128">
         <v>250</v>
       </c>
       <c r="O128" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P128" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q128" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R128" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S128">
@@ -8313,7 +9022,7 @@
         <v>60000</v>
       </c>
       <c r="T128" t="e">
-        <f t="shared" ref="T128" si="24">SUM(Q128:Q129)/S128</f>
+        <f>SUM(Q128:Q129)/S128</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U128" t="e">
@@ -8323,67 +9032,73 @@
     </row>
     <row r="129" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C129" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D129" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E129">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F129">
         <v>60</v>
       </c>
+      <c r="G129">
+        <v>425000</v>
+      </c>
       <c r="H129">
         <v>250</v>
       </c>
       <c r="O129" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P129" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q129" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R129" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="130" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C130" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D130" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E130">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F130">
         <v>80</v>
       </c>
+      <c r="G130">
+        <v>425000</v>
+      </c>
       <c r="H130">
         <v>250</v>
       </c>
       <c r="O130" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P130" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q130" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R130" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S130">
@@ -8391,7 +9106,7 @@
         <v>60000</v>
       </c>
       <c r="T130" t="e">
-        <f t="shared" ref="T130" si="25">SUM(Q130:Q131)/S130</f>
+        <f t="shared" ref="T130" si="24">SUM(Q130:Q131)/S130</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U130" t="e">
@@ -8401,67 +9116,73 @@
     </row>
     <row r="131" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C131" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D131" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E131">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F131">
         <v>60</v>
       </c>
+      <c r="G131">
+        <v>425000</v>
+      </c>
       <c r="H131">
         <v>250</v>
       </c>
       <c r="O131" t="e">
-        <f t="shared" ref="O131:P145" si="26">AVERAGE(I131,K131,M131)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P131" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q131" t="e">
-        <f t="shared" ref="Q131:Q145" si="27">(O131/H131)*G131</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R131" t="e">
-        <f t="shared" ref="R131:R145" si="28">(P131/H131)*G131</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="132" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C132" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D132" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E132">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F132">
         <v>80</v>
       </c>
+      <c r="G132">
+        <v>425000</v>
+      </c>
       <c r="H132">
         <v>250</v>
       </c>
       <c r="O132" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P132" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q132" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R132" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S132">
@@ -8469,7 +9190,7 @@
         <v>60000</v>
       </c>
       <c r="T132" t="e">
-        <f t="shared" ref="T132" si="29">SUM(Q132:Q133)/S132</f>
+        <f t="shared" ref="T132" si="25">SUM(Q132:Q133)/S132</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U132" t="e">
@@ -8479,67 +9200,73 @@
     </row>
     <row r="133" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C133" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D133" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E133">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F133">
         <v>60</v>
       </c>
+      <c r="G133">
+        <v>425000</v>
+      </c>
       <c r="H133">
         <v>250</v>
       </c>
       <c r="O133" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P133" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q133" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R133" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="134" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C134" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D134" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E134">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F134">
         <v>80</v>
       </c>
+      <c r="G134">
+        <v>425000</v>
+      </c>
       <c r="H134">
         <v>250</v>
       </c>
       <c r="O134" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P134" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q134" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R134" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S134">
@@ -8547,7 +9274,7 @@
         <v>60000</v>
       </c>
       <c r="T134" t="e">
-        <f t="shared" ref="T134" si="30">SUM(Q134:Q135)/S134</f>
+        <f t="shared" ref="T134" si="26">SUM(Q134:Q135)/S134</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U134" t="e">
@@ -8557,67 +9284,73 @@
     </row>
     <row r="135" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C135" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D135" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E135">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F135">
         <v>60</v>
       </c>
+      <c r="G135">
+        <v>425000</v>
+      </c>
       <c r="H135">
         <v>250</v>
       </c>
       <c r="O135" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P135" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q135" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R135" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="136" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C136" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D136" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E136">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F136">
         <v>80</v>
       </c>
+      <c r="G136">
+        <v>425000</v>
+      </c>
       <c r="H136">
         <v>250</v>
       </c>
       <c r="O136" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P136" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q136" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R136" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S136">
@@ -8625,7 +9358,7 @@
         <v>60000</v>
       </c>
       <c r="T136" t="e">
-        <f t="shared" ref="T136" si="31">SUM(Q136:Q137)/S136</f>
+        <f t="shared" ref="T136" si="27">SUM(Q136:Q137)/S136</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U136" t="e">
@@ -8635,67 +9368,73 @@
     </row>
     <row r="137" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C137" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D137" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E137">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F137">
         <v>60</v>
       </c>
+      <c r="G137">
+        <v>425000</v>
+      </c>
       <c r="H137">
         <v>250</v>
       </c>
       <c r="O137" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P137" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q137" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R137" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="138" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C138" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D138" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E138">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F138">
         <v>80</v>
       </c>
+      <c r="G138">
+        <v>425000</v>
+      </c>
       <c r="H138">
         <v>250</v>
       </c>
       <c r="O138" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P138" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q138" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R138" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S138">
@@ -8703,7 +9442,7 @@
         <v>60000</v>
       </c>
       <c r="T138" t="e">
-        <f t="shared" ref="T138" si="32">SUM(Q138:Q139)/S138</f>
+        <f t="shared" ref="T138" si="28">SUM(Q138:Q139)/S138</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U138" t="e">
@@ -8713,67 +9452,73 @@
     </row>
     <row r="139" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C139" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D139" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E139">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F139">
         <v>60</v>
       </c>
+      <c r="G139">
+        <v>425000</v>
+      </c>
       <c r="H139">
         <v>250</v>
       </c>
       <c r="O139" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P139" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q139" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R139" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="140" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C140" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D140" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E140">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F140">
         <v>80</v>
       </c>
+      <c r="G140">
+        <v>425000</v>
+      </c>
       <c r="H140">
         <v>250</v>
       </c>
       <c r="O140" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P140" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q140" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R140" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S140">
@@ -8781,7 +9526,7 @@
         <v>60000</v>
       </c>
       <c r="T140" t="e">
-        <f t="shared" ref="T140" si="33">SUM(Q140:Q141)/S140</f>
+        <f t="shared" ref="T140" si="29">SUM(Q140:Q141)/S140</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U140" t="e">
@@ -8791,67 +9536,73 @@
     </row>
     <row r="141" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C141" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D141" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E141">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F141">
         <v>60</v>
       </c>
+      <c r="G141">
+        <v>425000</v>
+      </c>
       <c r="H141">
         <v>250</v>
       </c>
       <c r="O141" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P141" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q141" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R141" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="142" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C142" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D142" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E142">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F142">
         <v>80</v>
       </c>
+      <c r="G142">
+        <v>425000</v>
+      </c>
       <c r="H142">
         <v>250</v>
       </c>
       <c r="O142" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P142" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q142" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R142" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S142">
@@ -8859,7 +9610,7 @@
         <v>60000</v>
       </c>
       <c r="T142" t="e">
-        <f>SUM(Q142)/S142</f>
+        <f t="shared" ref="T142" si="30">SUM(Q142:Q143)/S142</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U142" t="e">
@@ -8869,67 +9620,73 @@
     </row>
     <row r="143" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C143" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D143" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E143">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F143">
         <v>60</v>
       </c>
+      <c r="G143">
+        <v>425000</v>
+      </c>
       <c r="H143">
         <v>250</v>
       </c>
       <c r="O143" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P143" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q143" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R143" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="144" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C144" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D144" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E144">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F144">
         <v>80</v>
       </c>
+      <c r="G144">
+        <v>425000</v>
+      </c>
       <c r="H144">
         <v>250</v>
       </c>
       <c r="O144" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P144" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q144" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R144" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S144">
@@ -8937,7 +9694,7 @@
         <v>60000</v>
       </c>
       <c r="T144" t="e">
-        <f t="shared" ref="T144" si="34">SUM(Q144:Q145)/S144</f>
+        <f t="shared" ref="T144" si="31">SUM(Q144:Q145)/S144</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U144" t="e">
@@ -8945,36 +9702,1131 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="145" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C145" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D145" s="1">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="E145">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F145">
         <v>60</v>
       </c>
+      <c r="G145">
+        <v>425000</v>
+      </c>
       <c r="H145">
         <v>250</v>
       </c>
       <c r="O145" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P145" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q145" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R145" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="146" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C146" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D146" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E146">
+        <v>12</v>
+      </c>
+      <c r="F146">
+        <v>80</v>
+      </c>
+      <c r="G146">
+        <v>425000</v>
+      </c>
+      <c r="H146">
+        <v>250</v>
+      </c>
+      <c r="O146" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P146" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q146" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R146" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S146">
+        <f>15000*4</f>
+        <v>60000</v>
+      </c>
+      <c r="T146" t="e">
+        <f t="shared" ref="T146" si="32">SUM(Q146:Q147)/S146</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U146" t="e">
+        <f>Q146/15000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="147" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C147" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D147" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E147">
+        <v>12</v>
+      </c>
+      <c r="F147">
+        <v>60</v>
+      </c>
+      <c r="G147">
+        <v>425000</v>
+      </c>
+      <c r="H147">
+        <v>250</v>
+      </c>
+      <c r="O147" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P147" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q147" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R147" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="148" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C148" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D148" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E148">
+        <v>13</v>
+      </c>
+      <c r="F148">
+        <v>80</v>
+      </c>
+      <c r="G148">
+        <v>425000</v>
+      </c>
+      <c r="H148">
+        <v>250</v>
+      </c>
+      <c r="O148" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P148" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q148" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R148" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S148">
+        <f>15000*4</f>
+        <v>60000</v>
+      </c>
+      <c r="T148" t="e">
+        <f t="shared" ref="T148" si="33">SUM(Q148:Q149)/S148</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U148" t="e">
+        <f>Q148/15000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="149" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C149" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D149" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E149">
+        <v>13</v>
+      </c>
+      <c r="F149">
+        <v>60</v>
+      </c>
+      <c r="G149">
+        <v>425000</v>
+      </c>
+      <c r="H149">
+        <v>250</v>
+      </c>
+      <c r="O149" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P149" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q149" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R149" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="150" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C150" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D150" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E150">
+        <v>14</v>
+      </c>
+      <c r="F150">
+        <v>80</v>
+      </c>
+      <c r="G150">
+        <v>425000</v>
+      </c>
+      <c r="H150">
+        <v>250</v>
+      </c>
+      <c r="O150" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P150" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q150" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R150" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S150">
+        <f>15000*4</f>
+        <v>60000</v>
+      </c>
+      <c r="T150" t="e">
+        <f t="shared" ref="T150" si="34">SUM(Q150:Q151)/S150</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U150" t="e">
+        <f>Q150/15000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="151" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C151" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D151" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E151">
+        <v>14</v>
+      </c>
+      <c r="F151">
+        <v>60</v>
+      </c>
+      <c r="G151">
+        <v>425000</v>
+      </c>
+      <c r="H151">
+        <v>250</v>
+      </c>
+      <c r="O151" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P151" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q151" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R151" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="152" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C152" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D152" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E152">
+        <v>15</v>
+      </c>
+      <c r="F152">
+        <v>80</v>
+      </c>
+      <c r="G152">
+        <v>425000</v>
+      </c>
+      <c r="H152">
+        <v>250</v>
+      </c>
+      <c r="O152" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P152" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q152" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R152" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S152">
+        <f>15000*4</f>
+        <v>60000</v>
+      </c>
+      <c r="T152" t="e">
+        <f t="shared" ref="T152" si="35">SUM(Q152:Q153)/S152</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U152" t="e">
+        <f>Q152/15000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="153" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C153" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D153" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E153">
+        <v>15</v>
+      </c>
+      <c r="F153">
+        <v>60</v>
+      </c>
+      <c r="G153">
+        <v>425000</v>
+      </c>
+      <c r="H153">
+        <v>250</v>
+      </c>
+      <c r="O153" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P153" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q153" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R153" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="154" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C154" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D154" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E154">
+        <v>16</v>
+      </c>
+      <c r="F154">
+        <v>80</v>
+      </c>
+      <c r="G154">
+        <v>425000</v>
+      </c>
+      <c r="H154">
+        <v>250</v>
+      </c>
+      <c r="O154" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P154" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q154" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R154" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S154">
+        <f>15000*4</f>
+        <v>60000</v>
+      </c>
+      <c r="T154" t="e">
+        <f t="shared" ref="T154" si="36">SUM(Q154:Q155)/S154</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U154" t="e">
+        <f>Q154/15000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="155" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C155" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D155" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E155">
+        <v>16</v>
+      </c>
+      <c r="F155">
+        <v>60</v>
+      </c>
+      <c r="G155">
+        <v>425000</v>
+      </c>
+      <c r="H155">
+        <v>250</v>
+      </c>
+      <c r="O155" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P155" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q155" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R155" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="156" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C156" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D156" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E156">
+        <v>17</v>
+      </c>
+      <c r="F156">
+        <v>80</v>
+      </c>
+      <c r="G156">
+        <v>425000</v>
+      </c>
+      <c r="H156">
+        <v>250</v>
+      </c>
+      <c r="O156" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P156" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q156" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R156" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S156">
+        <f>15000*4</f>
+        <v>60000</v>
+      </c>
+      <c r="T156" t="e">
+        <f t="shared" ref="T156" si="37">SUM(Q156:Q157)/S156</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U156" t="e">
+        <f>Q156/15000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="157" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C157" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D157" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E157">
+        <v>17</v>
+      </c>
+      <c r="F157">
+        <v>60</v>
+      </c>
+      <c r="G157">
+        <v>425000</v>
+      </c>
+      <c r="H157">
+        <v>250</v>
+      </c>
+      <c r="O157" t="e">
+        <f t="shared" ref="O157:P171" si="38">AVERAGE(I157,K157,M157)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P157" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q157" t="e">
+        <f t="shared" ref="Q157:Q171" si="39">(O157/H157)*G157</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R157" t="e">
+        <f t="shared" ref="R157:R171" si="40">(P157/H157)*G157</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="158" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C158" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D158" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E158">
+        <v>18</v>
+      </c>
+      <c r="F158">
+        <v>80</v>
+      </c>
+      <c r="G158">
+        <v>425000</v>
+      </c>
+      <c r="H158">
+        <v>250</v>
+      </c>
+      <c r="O158" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P158" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q158" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R158" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S158">
+        <f>15000*4</f>
+        <v>60000</v>
+      </c>
+      <c r="T158" t="e">
+        <f t="shared" ref="T158" si="41">SUM(Q158:Q159)/S158</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U158" t="e">
+        <f>Q158/15000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="159" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C159" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D159" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E159">
+        <v>18</v>
+      </c>
+      <c r="F159">
+        <v>60</v>
+      </c>
+      <c r="G159">
+        <v>425000</v>
+      </c>
+      <c r="H159">
+        <v>250</v>
+      </c>
+      <c r="O159" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P159" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q159" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R159" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="160" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C160" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D160" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E160">
+        <v>19</v>
+      </c>
+      <c r="F160">
+        <v>80</v>
+      </c>
+      <c r="G160">
+        <v>425000</v>
+      </c>
+      <c r="H160">
+        <v>250</v>
+      </c>
+      <c r="O160" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P160" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q160" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R160" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S160">
+        <f>15000*4</f>
+        <v>60000</v>
+      </c>
+      <c r="T160" t="e">
+        <f t="shared" ref="T160" si="42">SUM(Q160:Q161)/S160</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U160" t="e">
+        <f>Q160/15000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="161" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C161" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D161" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E161">
+        <v>19</v>
+      </c>
+      <c r="F161">
+        <v>60</v>
+      </c>
+      <c r="G161">
+        <v>425000</v>
+      </c>
+      <c r="H161">
+        <v>250</v>
+      </c>
+      <c r="O161" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P161" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q161" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R161" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="162" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C162" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D162" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E162">
+        <v>20</v>
+      </c>
+      <c r="F162">
+        <v>80</v>
+      </c>
+      <c r="G162">
+        <v>425000</v>
+      </c>
+      <c r="H162">
+        <v>250</v>
+      </c>
+      <c r="O162" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P162" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q162" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R162" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S162">
+        <f>15000*4</f>
+        <v>60000</v>
+      </c>
+      <c r="T162" t="e">
+        <f t="shared" ref="T162" si="43">SUM(Q162:Q163)/S162</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U162" t="e">
+        <f>Q162/15000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="163" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C163" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D163" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E163">
+        <v>20</v>
+      </c>
+      <c r="F163">
+        <v>60</v>
+      </c>
+      <c r="G163">
+        <v>425000</v>
+      </c>
+      <c r="H163">
+        <v>250</v>
+      </c>
+      <c r="O163" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P163" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q163" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R163" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="164" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C164" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D164" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E164">
+        <v>21</v>
+      </c>
+      <c r="F164">
+        <v>80</v>
+      </c>
+      <c r="G164">
+        <v>425000</v>
+      </c>
+      <c r="H164">
+        <v>250</v>
+      </c>
+      <c r="O164" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P164" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q164" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R164" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S164">
+        <f>15000*4</f>
+        <v>60000</v>
+      </c>
+      <c r="T164" t="e">
+        <f t="shared" ref="T164" si="44">SUM(Q164:Q165)/S164</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U164" t="e">
+        <f>Q164/15000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="165" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C165" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D165" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E165">
+        <v>21</v>
+      </c>
+      <c r="F165">
+        <v>60</v>
+      </c>
+      <c r="G165">
+        <v>425000</v>
+      </c>
+      <c r="H165">
+        <v>250</v>
+      </c>
+      <c r="O165" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P165" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q165" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R165" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="166" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C166" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D166" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E166">
+        <v>22</v>
+      </c>
+      <c r="F166">
+        <v>80</v>
+      </c>
+      <c r="G166">
+        <v>425000</v>
+      </c>
+      <c r="H166">
+        <v>250</v>
+      </c>
+      <c r="O166" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P166" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q166" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R166" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S166">
+        <f>15000*4</f>
+        <v>60000</v>
+      </c>
+      <c r="T166" t="e">
+        <f t="shared" ref="T166" si="45">SUM(Q166:Q167)/S166</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U166" t="e">
+        <f>Q166/15000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="167" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C167" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D167" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E167">
+        <v>22</v>
+      </c>
+      <c r="F167">
+        <v>60</v>
+      </c>
+      <c r="G167">
+        <v>425000</v>
+      </c>
+      <c r="H167">
+        <v>250</v>
+      </c>
+      <c r="O167" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P167" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q167" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R167" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="168" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C168" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D168" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E168">
+        <v>23</v>
+      </c>
+      <c r="F168">
+        <v>80</v>
+      </c>
+      <c r="G168">
+        <v>425000</v>
+      </c>
+      <c r="H168">
+        <v>250</v>
+      </c>
+      <c r="O168" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P168" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q168" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R168" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S168">
+        <f>15000*4</f>
+        <v>60000</v>
+      </c>
+      <c r="T168" t="e">
+        <f>SUM(Q168)/S168</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U168" t="e">
+        <f>Q168/15000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="169" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C169" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D169" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E169">
+        <v>23</v>
+      </c>
+      <c r="F169">
+        <v>60</v>
+      </c>
+      <c r="G169">
+        <v>425000</v>
+      </c>
+      <c r="H169">
+        <v>250</v>
+      </c>
+      <c r="O169" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P169" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q169" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R169" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="170" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C170" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D170" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E170">
+        <v>24</v>
+      </c>
+      <c r="F170">
+        <v>80</v>
+      </c>
+      <c r="G170">
+        <v>425000</v>
+      </c>
+      <c r="H170">
+        <v>250</v>
+      </c>
+      <c r="O170" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P170" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q170" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R170" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S170">
+        <f>15000*4</f>
+        <v>60000</v>
+      </c>
+      <c r="T170" t="e">
+        <f t="shared" ref="T170" si="46">SUM(Q170:Q171)/S170</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U170" t="e">
+        <f>Q170/15000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="171" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C171" s="1">
+        <v>42956</v>
+      </c>
+      <c r="D171" s="1">
+        <v>42956</v>
+      </c>
+      <c r="E171">
+        <v>24</v>
+      </c>
+      <c r="F171">
+        <v>60</v>
+      </c>
+      <c r="G171">
+        <v>425000</v>
+      </c>
+      <c r="H171">
+        <v>250</v>
+      </c>
+      <c r="O171" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P171" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q171" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R171" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
     </row>
